--- a/prueba_yield_duration.xlsx
+++ b/prueba_yield_duration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C703"/>
+  <dimension ref="A1:C707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2949,349 +2949,349 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BBG00000C8Z9</t>
+          <t>BBG00BW1L575</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4.576</v>
+        <v>3</v>
       </c>
       <c r="C194" t="n">
-        <v>4.833</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BBG000021XY3</t>
+          <t>BBG00000C8Z9</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>5.677</v>
+        <v>4.576</v>
       </c>
       <c r="C195" t="n">
-        <v>6.676</v>
+        <v>4.833</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BBG00004FRQ6</t>
+          <t>BBG000021XY3</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7.232</v>
+        <v>5.677</v>
       </c>
       <c r="C196" t="n">
-        <v>6.184</v>
+        <v>6.676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BBG010FXDTH3</t>
+          <t>BBG00004FRQ6</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>6.096</v>
+        <v>7.232</v>
       </c>
       <c r="C197" t="n">
-        <v>2.475</v>
+        <v>6.184</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BBG0000KNDY3</t>
+          <t>BBG010FXDTH3</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6.137</v>
+        <v>6.096</v>
       </c>
       <c r="C198" t="n">
-        <v>8.084</v>
+        <v>2.475</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BBG006G2HB38</t>
+          <t>BBG0000KNDY3</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>8.487</v>
+        <v>6.137</v>
       </c>
       <c r="C199" t="n">
-        <v>10.265</v>
+        <v>8.084</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BBG00ZJJX655</t>
+          <t>BBG006G2HB38</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5.446</v>
+        <v>8.487</v>
       </c>
       <c r="C200" t="n">
-        <v>0.533</v>
+        <v>10.265</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BBG00GVWSCZ4</t>
+          <t>BBG00ZJJX655</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4.704</v>
+        <v>5.446</v>
       </c>
       <c r="C201" t="n">
-        <v>1.707</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BBG00D7FYFT8</t>
+          <t>BBG00GVWSCZ4</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4.337</v>
+        <v>4.704</v>
       </c>
       <c r="C202" t="n">
-        <v>0.877</v>
+        <v>1.707</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BBG00Z3JPT97</t>
+          <t>BBG00D7FYFT8</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>22.028</v>
+        <v>4.337</v>
       </c>
       <c r="C203" t="n">
-        <v>29.776</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BBG00RDSQ2C8</t>
+          <t>BBG00Z3JPT97</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>6.674</v>
+        <v>22.028</v>
       </c>
       <c r="C204" t="n">
-        <v>3.57</v>
+        <v>29.776</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BBG009F3WSC7</t>
+          <t>BBG00RDSQ2C8</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>6.887</v>
+        <v>6.674</v>
       </c>
       <c r="C205" t="n">
-        <v>11.557</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BBG00009FT18</t>
+          <t>BBG009F3WSC7</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6.176</v>
+        <v>6.887</v>
       </c>
       <c r="C206" t="n">
-        <v>6.939</v>
+        <v>11.557</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BBG00NVBDXZ5</t>
+          <t>BBG00009FT18</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>5.201</v>
+        <v>6.176</v>
       </c>
       <c r="C207" t="n">
-        <v>0.633</v>
+        <v>6.939</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BBG00000L139</t>
+          <t>BBG00NVBDXZ5</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>5.185</v>
+        <v>5.201</v>
       </c>
       <c r="C208" t="n">
-        <v>3.007</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BBG00004TFY8</t>
+          <t>BBG00000L139</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4.464</v>
+        <v>5.185</v>
       </c>
       <c r="C209" t="n">
-        <v>1.877</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BBG00V3LZFM5</t>
+          <t>BBG00004TFY8</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>5.162</v>
+        <v>4.464</v>
       </c>
       <c r="C210" t="n">
-        <v>4.384</v>
+        <v>1.877</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BBG00LQM92M8</t>
+          <t>BBG00V3LZFM5</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4.967</v>
+        <v>5.162</v>
       </c>
       <c r="C211" t="n">
-        <v>2.241</v>
+        <v>4.384</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>BBG00JWNX425</t>
+          <t>BBG00LQM92M8</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>5.021</v>
+        <v>4.967</v>
       </c>
       <c r="C212" t="n">
-        <v>3.093</v>
+        <v>2.241</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BBG0000H86Z1</t>
+          <t>BBG00JWNX425</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6.688</v>
+        <v>5.021</v>
       </c>
       <c r="C213" t="n">
-        <v>9.06</v>
+        <v>3.093</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BBG004K4JJQ0</t>
+          <t>BBG0000H86Z1</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6.966</v>
+        <v>6.688</v>
       </c>
       <c r="C214" t="n">
-        <v>10.398</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BBG009BNFQ03</t>
+          <t>BBG004K4JJQ0</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7.589</v>
+        <v>6.966</v>
       </c>
       <c r="C215" t="n">
-        <v>12.97</v>
+        <v>10.398</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BBG012DCYNL2</t>
+          <t>BBG009BNFQ03</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>12.202</v>
+        <v>7.589</v>
       </c>
       <c r="C216" t="n">
-        <v>5.125</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BBG00XVBZT42</t>
+          <t>BBG012DCYNL2</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>7.297</v>
+        <v>12.202</v>
       </c>
       <c r="C217" t="n">
-        <v>2.26</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BBG00000SZT9</t>
+          <t>BBG00XVBZT42</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4.962</v>
+        <v>7.297</v>
       </c>
       <c r="C218" t="n">
-        <v>0.539</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BBG00F3252W3</t>
+          <t>BBG00000SZT9</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>8.91</v>
+        <v>4.962</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BBG00284THL6</t>
+          <t>BBG00F3252W3</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>62.144</v>
+        <v>8.91</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,11 +3300,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BBG001J4CF10</t>
+          <t>BBG00284THL6</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>81.13800000000001</v>
+        <v>62.144</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3313,1298 +3313,1298 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BBG005P0QS73</t>
+          <t>BBG001J4CF10</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>260.899</v>
+        <v>81.13800000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>0.523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BBG002ZBYR23</t>
+          <t>BBG005P0QS73</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>56.379</v>
+        <v>260.899</v>
       </c>
       <c r="C223" t="n">
-        <v>2.178</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BBG0000DSNJ9</t>
+          <t>BBG002ZBYR23</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>40.665</v>
+        <v>56.379</v>
       </c>
       <c r="C224" t="n">
-        <v>3.134</v>
+        <v>2.178</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BBG00C5Y89J5</t>
+          <t>BBG0000DSNJ9</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>51.14</v>
+        <v>40.665</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>3.134</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BBG00CX8RJC5</t>
+          <t>BBG00C5Y89J5</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4.466</v>
+        <v>51.14</v>
       </c>
       <c r="C226" t="n">
-        <v>0.722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BBG00XT0MW37</t>
+          <t>BBG00CX8RJC5</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>6.443</v>
+        <v>4.466</v>
       </c>
       <c r="C227" t="n">
-        <v>0.077</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BBG00FM52W52</t>
+          <t>BBG00XT0MW37</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>6.311</v>
+        <v>6.443</v>
       </c>
       <c r="C228" t="n">
-        <v>0.91</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BBG0076DCXD9</t>
+          <t>BBG00FM52W52</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>8.968999999999999</v>
+        <v>6.311</v>
       </c>
       <c r="C229" t="n">
-        <v>9.715</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BBG000098L86</t>
+          <t>BBG0076DCXD9</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>8.159000000000001</v>
+        <v>8.968999999999999</v>
       </c>
       <c r="C230" t="n">
-        <v>6.844</v>
+        <v>9.715</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BBG00008FJV9</t>
+          <t>BBG000098L86</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5.09</v>
+        <v>8.159000000000001</v>
       </c>
       <c r="C231" t="n">
-        <v>6.043</v>
+        <v>6.844</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BBG0000GWC38</t>
+          <t>BBG00008FJV9</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5.372</v>
+        <v>5.09</v>
       </c>
       <c r="C232" t="n">
-        <v>7.531</v>
+        <v>6.043</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BBG00Z6C6ZF9</t>
+          <t>BBG0000GWC38</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>5.441</v>
+        <v>5.372</v>
       </c>
       <c r="C233" t="n">
-        <v>3.184</v>
+        <v>7.531</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BBG01BTR9174</t>
+          <t>BBG00Z6C6ZF9</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4.693</v>
+        <v>5.441</v>
       </c>
       <c r="C234" t="n">
-        <v>2.114</v>
+        <v>3.184</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BBG00005NKY0</t>
+          <t>BBG01BTR9174</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>6.497</v>
+        <v>4.693</v>
       </c>
       <c r="C235" t="n">
-        <v>8.051</v>
+        <v>2.114</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BBG0000GXL55</t>
+          <t>BBG00005NKY0</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4.73</v>
+        <v>6.497</v>
       </c>
       <c r="C236" t="n">
-        <v>8.385999999999999</v>
+        <v>8.051</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BBG001DJX3T7</t>
+          <t>BBG0000GXL55</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>6.788</v>
+        <v>4.73</v>
       </c>
       <c r="C237" t="n">
-        <v>9.446</v>
+        <v>8.385999999999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BBG00RDHRGT2</t>
+          <t>BBG001DJX3T7</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>7.298</v>
+        <v>6.788</v>
       </c>
       <c r="C238" t="n">
-        <v>2.26</v>
+        <v>9.446</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BBG00000QK87</t>
+          <t>BBG00RDHRGT2</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>5.217</v>
+        <v>7.298</v>
       </c>
       <c r="C239" t="n">
-        <v>8.76</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BBG00XRS7G76</t>
+          <t>BBG00000QK87</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>4.23</v>
+        <v>5.217</v>
       </c>
       <c r="C240" t="n">
-        <v>5.157</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BBG0119BJDL0</t>
+          <t>BBG00XRS7G76</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>5.822</v>
+        <v>4.23</v>
       </c>
       <c r="C241" t="n">
-        <v>0.766</v>
+        <v>5.157</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BBG00XKLYGH7</t>
+          <t>BBG0119BJDL0</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>9.07</v>
+        <v>5.822</v>
       </c>
       <c r="C242" t="n">
-        <v>10.768</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BBG00FGW2JX8</t>
+          <t>BBG00XKLYGH7</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1.875</v>
+        <v>9.07</v>
       </c>
       <c r="C243" t="n">
-        <v>1.462</v>
+        <v>10.768</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BBG00GH3BCW5</t>
+          <t>BBG00FGW2JX8</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>7.793</v>
+        <v>1.875</v>
       </c>
       <c r="C244" t="n">
-        <v>2.057</v>
+        <v>1.462</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BBG0064M2HN8</t>
+          <t>BBG00GH3BCW5</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>6.998</v>
+        <v>7.793</v>
       </c>
       <c r="C245" t="n">
-        <v>9.936</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BBG00NKXZ8F2</t>
+          <t>BBG0064M2HN8</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>7.284</v>
+        <v>6.998</v>
       </c>
       <c r="C246" t="n">
-        <v>10.976</v>
+        <v>9.936</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BBG00004QNG4</t>
+          <t>BBG00NKXZ8F2</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>37.738</v>
+        <v>7.284</v>
       </c>
       <c r="C247" t="n">
-        <v>3.497</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BBG00003TSB7</t>
+          <t>BBG00004QNG4</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1122.319</v>
+        <v>37.738</v>
       </c>
       <c r="C248" t="n">
-        <v>0.21</v>
+        <v>3.497</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BBG00FRM87G7</t>
+          <t>BBG00003TSB7</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5.401</v>
+        <v>1122.319</v>
       </c>
       <c r="C249" t="n">
-        <v>1.342</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BBG00H0KGFG9</t>
+          <t>BBG00FRM87G7</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4.168</v>
+        <v>5.401</v>
       </c>
       <c r="C250" t="n">
-        <v>1.769</v>
+        <v>1.342</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BBG00005NWP4</t>
+          <t>BBG00H0KGFG9</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>7.097</v>
+        <v>4.168</v>
       </c>
       <c r="C251" t="n">
-        <v>5.333</v>
+        <v>1.769</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BBG00X034RZ8</t>
+          <t>BBG00005NWP4</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>11.074</v>
+        <v>7.097</v>
       </c>
       <c r="C252" t="n">
-        <v>5.36</v>
+        <v>5.333</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BBG003ML4TZ6</t>
+          <t>BBG00X034RZ8</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>5.231</v>
+        <v>11.074</v>
       </c>
       <c r="C253" t="n">
-        <v>12.474</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BBG00X0384N8</t>
+          <t>BBG003ML4TZ6</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>6.306</v>
+        <v>5.231</v>
       </c>
       <c r="C254" t="n">
-        <v>2.296</v>
+        <v>12.474</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BBG00XV1FN94</t>
+          <t>BBG00X0384N8</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4.42</v>
+        <v>6.306</v>
       </c>
       <c r="C255" t="n">
-        <v>1.758</v>
+        <v>2.296</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BBG00T7L9L24</t>
+          <t>BBG00XV1FN94</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>4.601</v>
+        <v>4.42</v>
       </c>
       <c r="C256" t="n">
-        <v>4.928</v>
+        <v>1.758</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BBG00CKKN545</t>
+          <t>BBG00T7L9L24</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4.863</v>
+        <v>4.601</v>
       </c>
       <c r="C257" t="n">
-        <v>0.625</v>
+        <v>4.928</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BBG011LNV9T7</t>
+          <t>BBG00CKKN545</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>6.009</v>
+        <v>4.863</v>
       </c>
       <c r="C258" t="n">
-        <v>5.143</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BBG00XK3LNN9</t>
+          <t>BBG011LNV9T7</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>5.695</v>
+        <v>6.009</v>
       </c>
       <c r="C259" t="n">
-        <v>6.284</v>
+        <v>5.143</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BBG000009XY9</t>
+          <t>BBG00XK3LNN9</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>6.5</v>
+        <v>5.695</v>
       </c>
       <c r="C260" t="n">
-        <v>6.181</v>
+        <v>6.284</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BBG00X363NH8</t>
+          <t>BBG000009XY9</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>6.194</v>
+        <v>6.5</v>
       </c>
       <c r="C261" t="n">
-        <v>1.879</v>
+        <v>6.181</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BBG00X380DY0</t>
+          <t>BBG00X363NH8</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>6.584</v>
+        <v>6.194</v>
       </c>
       <c r="C262" t="n">
-        <v>2.275</v>
+        <v>1.879</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BBG00X364238</t>
+          <t>BBG00X380DY0</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>8.852</v>
+        <v>6.584</v>
       </c>
       <c r="C263" t="n">
-        <v>4.956</v>
+        <v>2.275</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BBG00X3HXLQ5</t>
+          <t>BBG00X364238</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>10.028</v>
+        <v>8.852</v>
       </c>
       <c r="C264" t="n">
-        <v>5.72</v>
+        <v>4.956</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BBG00X3H5H94</t>
+          <t>BBG00X3HXLQ5</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>8.335000000000001</v>
+        <v>10.028</v>
       </c>
       <c r="C265" t="n">
-        <v>5.891</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BBG00XV1GGJ7</t>
+          <t>BBG00X3H5H94</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4.414</v>
+        <v>8.335000000000001</v>
       </c>
       <c r="C266" t="n">
-        <v>1.758</v>
+        <v>5.891</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BBG0000B6GF6</t>
+          <t>BBG00XV1GGJ7</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>7.874</v>
+        <v>4.414</v>
       </c>
       <c r="C267" t="n">
-        <v>6.697</v>
+        <v>1.758</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BBG00QD5SJQ6</t>
+          <t>BBG0000B6GF6</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>5.555</v>
+        <v>7.874</v>
       </c>
       <c r="C268" t="n">
-        <v>3.601</v>
+        <v>6.697</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BBG00JYKQTK2</t>
+          <t>BBG00QD5SJQ6</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4.315</v>
+        <v>5.555</v>
       </c>
       <c r="C269" t="n">
-        <v>1.568</v>
+        <v>3.601</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BBG00L334DW5</t>
+          <t>BBG00JYKQTK2</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>4.281</v>
+        <v>4.315</v>
       </c>
       <c r="C270" t="n">
-        <v>2.6</v>
+        <v>1.568</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BBG00Z71RPQ9</t>
+          <t>BBG00L334DW5</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6.691</v>
+        <v>4.281</v>
       </c>
       <c r="C271" t="n">
-        <v>4.683</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BBG00QS35JG1</t>
+          <t>BBG00Z71RPQ9</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>5.622</v>
+        <v>6.691</v>
       </c>
       <c r="C272" t="n">
-        <v>1.161</v>
+        <v>4.683</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BBG003BMYPW4</t>
+          <t>BBG00QS35JG1</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>5.743</v>
+        <v>5.622</v>
       </c>
       <c r="C273" t="n">
-        <v>10.877</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BBG0133DB3W6</t>
+          <t>BBG003BMYPW4</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>7.419</v>
+        <v>5.743</v>
       </c>
       <c r="C274" t="n">
-        <v>0.029</v>
+        <v>10.877</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BBG00KMZ1CR6</t>
+          <t>BBG0133DB3W6</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>4.77</v>
+        <v>7.419</v>
       </c>
       <c r="C275" t="n">
-        <v>2.223</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BBG00J202FN4</t>
+          <t>BBG00KMZ1CR6</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>5.029</v>
+        <v>4.77</v>
       </c>
       <c r="C276" t="n">
-        <v>2.051</v>
+        <v>2.223</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BBG010M9HKM7</t>
+          <t>BBG00J202FN4</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>7.396</v>
+        <v>5.029</v>
       </c>
       <c r="C277" t="n">
-        <v>0.832</v>
+        <v>2.051</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BBG010M9JDQ7</t>
+          <t>BBG010M9HKM7</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>7.249</v>
+        <v>7.396</v>
       </c>
       <c r="C278" t="n">
-        <v>2.521</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BBG011QMQZ03</t>
+          <t>BBG010M9JDQ7</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>9.94</v>
+        <v>7.249</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8139999999999999</v>
+        <v>2.521</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BBG00QRWVQC7</t>
+          <t>BBG011QMQZ03</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5.632</v>
+        <v>9.94</v>
       </c>
       <c r="C280" t="n">
-        <v>14.737</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BBG000067R08</t>
+          <t>BBG00QRWVQC7</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5.538</v>
+        <v>5.632</v>
       </c>
       <c r="C281" t="n">
-        <v>4.494</v>
+        <v>14.737</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BBG00CNVV8N2</t>
+          <t>BBG000067R08</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>4.964</v>
+        <v>5.538</v>
       </c>
       <c r="C282" t="n">
-        <v>0.637</v>
+        <v>4.494</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BBG00DRKVXG3</t>
+          <t>BBG00CNVV8N2</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>6.531</v>
+        <v>4.964</v>
       </c>
       <c r="C283" t="n">
-        <v>0.076</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BBG00JFZ88H0</t>
+          <t>BBG00DRKVXG3</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>19.264</v>
+        <v>6.531</v>
       </c>
       <c r="C284" t="n">
-        <v>0.301</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BBG009S0TY85</t>
+          <t>BBG00JFZ88H0</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>4.782</v>
+        <v>19.264</v>
       </c>
       <c r="C285" t="n">
-        <v>0.031</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BBG011DXSGH5</t>
+          <t>BBG009S0TY85</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>6.402</v>
+        <v>4.782</v>
       </c>
       <c r="C286" t="n">
-        <v>2.592</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BBG00DLMDM88</t>
+          <t>BBG011DXSGH5</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>4.586</v>
+        <v>6.402</v>
       </c>
       <c r="C287" t="n">
-        <v>1.43</v>
+        <v>2.592</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BBG00NS7DTC2</t>
+          <t>BBG00DLMDM88</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>14.573</v>
+        <v>4.586</v>
       </c>
       <c r="C288" t="n">
-        <v>1.397</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BBG00GF5WHC0</t>
+          <t>BBG00NS7DTC2</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>4.71</v>
+        <v>14.573</v>
       </c>
       <c r="C289" t="n">
-        <v>1.542</v>
+        <v>1.397</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BBG00PQCQPJ5</t>
+          <t>BBG00GF5WHC0</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>4.996</v>
+        <v>4.71</v>
       </c>
       <c r="C290" t="n">
-        <v>2.837</v>
+        <v>1.542</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BBG011MF43T6</t>
+          <t>BBG00PQCQPJ5</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>5.174</v>
+        <v>4.996</v>
       </c>
       <c r="C291" t="n">
-        <v>5.646</v>
+        <v>2.837</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BBG007GY22Y8</t>
+          <t>BBG011MF43T6</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>4.937</v>
+        <v>5.174</v>
       </c>
       <c r="C292" t="n">
-        <v>13.49</v>
+        <v>5.646</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BBG00Y2NNDT7</t>
+          <t>BBG007GY22Y8</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3.849</v>
+        <v>4.937</v>
       </c>
       <c r="C293" t="n">
-        <v>5.009</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BBG00YXS3FZ2</t>
+          <t>BBG00Y2NNDT7</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1.439</v>
+        <v>3.849</v>
       </c>
       <c r="C294" t="n">
-        <v>2.672</v>
+        <v>5.009</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BBG00JXPJX49</t>
+          <t>BBG00YXS3FZ2</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>4.985</v>
+        <v>1.439</v>
       </c>
       <c r="C295" t="n">
-        <v>14.95</v>
+        <v>2.672</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BBG00N7409K1</t>
+          <t>BBG00JXPJX49</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>4.985</v>
       </c>
       <c r="C296" t="n">
-        <v>15.32</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BBG00PVTJ2L8</t>
+          <t>BBG00N7409K1</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>3.709</v>
+        <v>4.985</v>
       </c>
       <c r="C297" t="n">
-        <v>3.799</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BBG00R4RS5F8</t>
+          <t>BBG00PVTJ2L8</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3.844</v>
+        <v>3.709</v>
       </c>
       <c r="C298" t="n">
-        <v>1.323</v>
+        <v>3.799</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BBG000FZB1J0</t>
+          <t>BBG00R4RS5F8</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3.878</v>
+        <v>3.844</v>
       </c>
       <c r="C299" t="n">
-        <v>4.756</v>
+        <v>1.323</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BBG00PQNJNC1</t>
+          <t>BBG000FZB1J0</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3.956</v>
+        <v>3.878</v>
       </c>
       <c r="C300" t="n">
-        <v>0.923</v>
+        <v>4.756</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BBG00000X252</t>
+          <t>BBG00PQNJNC1</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>6.69</v>
+        <v>3.956</v>
       </c>
       <c r="C301" t="n">
-        <v>8.15</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BBG00Q709CS8</t>
+          <t>BBG00000X252</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>4.997</v>
+        <v>6.69</v>
       </c>
       <c r="C302" t="n">
-        <v>1.903</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BBG00G3Z2FF1</t>
+          <t>BBG00Q709CS8</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>4.355</v>
+        <v>4.997</v>
       </c>
       <c r="C303" t="n">
-        <v>1.459</v>
+        <v>1.903</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BBG0000BKK89</t>
+          <t>BBG00G3Z2FF1</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>5.947</v>
+        <v>4.355</v>
       </c>
       <c r="C304" t="n">
-        <v>6.791</v>
+        <v>1.459</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BBG00JVDTTV6</t>
+          <t>BBG0000BKK89</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>4.694</v>
+        <v>5.947</v>
       </c>
       <c r="C305" t="n">
-        <v>0.438</v>
+        <v>6.791</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BBG012J3C1P4</t>
+          <t>BBG00JVDTTV6</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>18.4</v>
+        <v>4.694</v>
       </c>
       <c r="C306" t="n">
-        <v>2.474</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BBG01C84K6V5</t>
+          <t>BBG012J3C1P4</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>4.091</v>
+        <v>18.4</v>
       </c>
       <c r="C307" t="n">
-        <v>0.396</v>
+        <v>2.474</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BBG00Z83WQS4</t>
+          <t>BBG01C84K6V5</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>4.788</v>
+        <v>4.091</v>
       </c>
       <c r="C308" t="n">
-        <v>12.672</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BBG00002HMW2</t>
+          <t>BBG00Z83WQS4</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>10.632</v>
+        <v>4.788</v>
       </c>
       <c r="C309" t="n">
-        <v>4.27</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BBG01920ZBH5</t>
+          <t>BBG00002HMW2</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>4.05</v>
+        <v>10.632</v>
       </c>
       <c r="C310" t="n">
-        <v>6.245</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BBG01248GVN1</t>
+          <t>BBG01920ZBH5</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>4.834</v>
+        <v>4.05</v>
       </c>
       <c r="C311" t="n">
-        <v>13.099</v>
+        <v>6.245</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BBG00RDSS5J2</t>
+          <t>BBG01248GVN1</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1.32</v>
+        <v>4.834</v>
       </c>
       <c r="C312" t="n">
-        <v>2.18</v>
+        <v>13.099</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BBG00PPPY8W1</t>
+          <t>BBG00RDSS5J2</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>179.382</v>
+        <v>1.32</v>
       </c>
       <c r="C313" t="n">
-        <v>1.075</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BBG00BC5WK64</t>
+          <t>BBG00PPPY8W1</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>4.959</v>
+        <v>179.382</v>
       </c>
       <c r="C314" t="n">
-        <v>0.206</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BBG00000H4Y4</t>
+          <t>BBG00BC5WK64</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>5.14</v>
+        <v>4.959</v>
       </c>
       <c r="C315" t="n">
-        <v>6.87</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BBG006MG6606</t>
+          <t>BBG00000H4Y4</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>5.597</v>
+        <v>5.14</v>
       </c>
       <c r="C316" t="n">
-        <v>13.193</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BBG0000L3YK2</t>
+          <t>BBG006MG6606</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>36.568</v>
+        <v>5.597</v>
       </c>
       <c r="C317" t="n">
-        <v>3.257</v>
+        <v>13.193</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BBG00005S6Q5</t>
+          <t>BBG0000L3YK2</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>5.207</v>
+        <v>36.568</v>
       </c>
       <c r="C318" t="n">
-        <v>6.244</v>
+        <v>3.257</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BBG003C4N915</t>
+          <t>BBG00005S6Q5</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>5.652</v>
+        <v>5.207</v>
       </c>
       <c r="C319" t="n">
-        <v>10.603</v>
+        <v>6.244</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BBG0000HK5Q9</t>
+          <t>BBG003C4N915</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>47.874</v>
+        <v>5.652</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>10.603</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BBG00007NKW8</t>
+          <t>BBG0000HK5Q9</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>40.92</v>
+        <v>47.874</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,167 +4613,167 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BBG0025CGBB9</t>
+          <t>BBG00007NKW8</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>214.873</v>
+        <v>40.92</v>
       </c>
       <c r="C322" t="n">
-        <v>0.539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BBG0000HNBV7</t>
+          <t>BBG0025CGBB9</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>91.59399999999999</v>
+        <v>214.873</v>
       </c>
       <c r="C323" t="n">
-        <v>1.526</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BBG001WQRQ16</t>
+          <t>BBG0000HNBV7</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>56.783</v>
+        <v>91.59399999999999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.516</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BBG00Z5L6Y72</t>
+          <t>BBG001WQRQ16</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>10.747</v>
+        <v>56.783</v>
       </c>
       <c r="C325" t="n">
-        <v>0.452</v>
+        <v>2.516</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BBG00004SPH6</t>
+          <t>BBG00Z5L6Y72</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>115.201</v>
+        <v>10.747</v>
       </c>
       <c r="C326" t="n">
-        <v>1.123</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BBG00G6QW2B8</t>
+          <t>BBG00004SPH6</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>4.089</v>
+        <v>115.201</v>
       </c>
       <c r="C327" t="n">
-        <v>1.482</v>
+        <v>1.123</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BBG00NGSLJQ7</t>
+          <t>BBG00G6QW2B8</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4.293</v>
+        <v>4.089</v>
       </c>
       <c r="C328" t="n">
-        <v>3.862</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BBG007NS0QC6</t>
+          <t>BBG00NGSLJQ7</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6.926</v>
+        <v>4.293</v>
       </c>
       <c r="C329" t="n">
-        <v>7.125</v>
+        <v>3.862</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BBG0063HNBF9</t>
+          <t>BBG007NS0QC6</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>7.052</v>
+        <v>6.926</v>
       </c>
       <c r="C330" t="n">
-        <v>10.679</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BBG0014KKZG1</t>
+          <t>BBG0063HNBF9</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>64.246</v>
+        <v>7.052</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>10.679</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BBG00000K4D3</t>
+          <t>BBG0014KKZG1</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>5.611</v>
+        <v>64.246</v>
       </c>
       <c r="C332" t="n">
-        <v>7.849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BBG00003H5Z4</t>
+          <t>BBG00000K4D3</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>42.508</v>
+        <v>5.611</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>7.849</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BBG000048WK9</t>
+          <t>BBG00003H5Z4</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>47.305</v>
+        <v>42.508</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -4782,11 +4782,11 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BBG00005XPV1</t>
+          <t>BBG000048WK9</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>37.465</v>
+        <v>47.305</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
@@ -4795,4784 +4795,4836 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BBG0000BBNL8</t>
+          <t>BBG00005XPV1</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>5.197</v>
+        <v>37.465</v>
       </c>
       <c r="C336" t="n">
-        <v>7.602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BBG00T5JC6L9</t>
+          <t>BBG0000BBNL8</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>4.222</v>
+        <v>5.197</v>
       </c>
       <c r="C337" t="n">
-        <v>4.214</v>
+        <v>7.602</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BBG00D0G25Z3</t>
+          <t>BBG00T5JC6L9</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>5.68</v>
+        <v>4.222</v>
       </c>
       <c r="C338" t="n">
-        <v>0.751</v>
+        <v>4.214</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BBG00TSCC3R0</t>
+          <t>BBG00D0G25Z3</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>4.215</v>
+        <v>5.68</v>
       </c>
       <c r="C339" t="n">
-        <v>4.93</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BBG00JXGN2L3</t>
+          <t>BBG00TSCC3R0</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>5.083</v>
+        <v>4.215</v>
       </c>
       <c r="C340" t="n">
-        <v>0.474</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BBG00Q5D3237</t>
+          <t>BBG00JXGN2L3</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>4.122</v>
+        <v>5.083</v>
       </c>
       <c r="C341" t="n">
-        <v>3.769</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BBG00Q5D3246</t>
+          <t>BBG00Q5D3237</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>5.566</v>
+        <v>4.122</v>
       </c>
       <c r="C342" t="n">
-        <v>15.051</v>
+        <v>3.769</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BBG00QNKPKJ0</t>
+          <t>BBG00Q5D3246</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3.999</v>
+        <v>5.566</v>
       </c>
       <c r="C343" t="n">
-        <v>0.193</v>
+        <v>15.051</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BBG000056386</t>
+          <t>BBG00QNKPKJ0</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>4.443</v>
+        <v>3.999</v>
       </c>
       <c r="C344" t="n">
-        <v>2.119</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BBG006KDBLF0</t>
+          <t>BBG000056386</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>4.478</v>
+        <v>4.443</v>
       </c>
       <c r="C345" t="n">
-        <v>0.759</v>
+        <v>2.119</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BBG00NDYBB76</t>
+          <t>BBG006KDBLF0</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>5.243</v>
+        <v>4.478</v>
       </c>
       <c r="C346" t="n">
-        <v>3.121</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BBG00WLL2QC6</t>
+          <t>BBG00NDYBB76</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>5.243</v>
       </c>
       <c r="C347" t="n">
-        <v>2.756</v>
+        <v>3.121</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BBG00008ZC15</t>
+          <t>BBG00WLL2QC6</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>6.043</v>
+        <v>5.243</v>
       </c>
       <c r="C348" t="n">
-        <v>7.914</v>
+        <v>2.756</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BBG00G74TP92</t>
+          <t>BBG00008ZC15</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>5.33</v>
+        <v>6.043</v>
       </c>
       <c r="C349" t="n">
-        <v>1.267</v>
+        <v>7.914</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BBG00WGHRZN2</t>
+          <t>BBG00G74TP92</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>22.776</v>
+        <v>5.33</v>
       </c>
       <c r="C350" t="n">
-        <v>2.453</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BBG011LNKM92</t>
+          <t>BBG00WGHRZN2</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>5.483</v>
+        <v>22.776</v>
       </c>
       <c r="C351" t="n">
-        <v>0.833</v>
+        <v>2.453</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BBG00H5RJ0H8</t>
+          <t>BBG011LNKM92</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>6.58</v>
+        <v>5.483</v>
       </c>
       <c r="C352" t="n">
-        <v>1.763</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BBG01DVKBBT3</t>
+          <t>BBG00H5RJ0H8</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4.096</v>
+        <v>6.58</v>
       </c>
       <c r="C353" t="n">
-        <v>0.477</v>
+        <v>1.763</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BBG00HTQLBX9</t>
+          <t>BBG01DVKBBT3</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>5.35</v>
+        <v>4.096</v>
       </c>
       <c r="C354" t="n">
-        <v>1.951</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BBG007WTC662</t>
+          <t>BBG00HTQLBX9</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>6.239</v>
+        <v>5.35</v>
       </c>
       <c r="C355" t="n">
-        <v>14.306</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BBG004KGN7B0</t>
+          <t>BBG007WTC662</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>5.789</v>
+        <v>6.239</v>
       </c>
       <c r="C356" t="n">
-        <v>12.316</v>
+        <v>14.306</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BBG001MKS4Z1</t>
+          <t>BBG004KGN7B0</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>5.581</v>
+        <v>5.789</v>
       </c>
       <c r="C357" t="n">
-        <v>9.914</v>
+        <v>12.316</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BBG004KGN418</t>
+          <t>BBG001MKS4Z1</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>5.675</v>
+        <v>5.581</v>
       </c>
       <c r="C358" t="n">
-        <v>11.472</v>
+        <v>9.914</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BBG001XT6TK5</t>
+          <t>BBG004KGN418</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>12.525</v>
+        <v>5.675</v>
       </c>
       <c r="C359" t="n">
-        <v>7.572</v>
+        <v>11.472</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BBG00582F0G1</t>
+          <t>BBG001XT6TK5</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>8.731999999999999</v>
+        <v>12.525</v>
       </c>
       <c r="C360" t="n">
-        <v>9.006</v>
+        <v>7.572</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BBG00003N9Z9</t>
+          <t>BBG00582F0G1</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>6.924</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="C361" t="n">
-        <v>10.661</v>
+        <v>9.006</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BBG0045LQ0J0</t>
+          <t>BBG00003N9Z9</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>4.41</v>
+        <v>6.924</v>
       </c>
       <c r="C362" t="n">
-        <v>4.907</v>
+        <v>10.661</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BBG0070J1251</t>
+          <t>BBG0045LQ0J0</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>5.002</v>
+        <v>4.41</v>
       </c>
       <c r="C363" t="n">
-        <v>10.399</v>
+        <v>4.907</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BBG006WY1KW5</t>
+          <t>BBG0070J1251</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>5.213</v>
+        <v>5.002</v>
       </c>
       <c r="C364" t="n">
-        <v>12.564</v>
+        <v>10.399</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BBG003PYLGX6</t>
+          <t>BBG006WY1KW5</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>5.143</v>
+        <v>5.213</v>
       </c>
       <c r="C365" t="n">
-        <v>9.422000000000001</v>
+        <v>12.564</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BBG00002J8F0</t>
+          <t>BBG003PYLGX6</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>4.088</v>
+        <v>5.143</v>
       </c>
       <c r="C366" t="n">
-        <v>0.949</v>
+        <v>9.422000000000001</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BBG00K9MWWN6</t>
+          <t>BBG00002J8F0</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>3.469</v>
+        <v>4.088</v>
       </c>
       <c r="C367" t="n">
-        <v>0.08</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BBG006QRGSW4</t>
+          <t>BBG00K9MWWN6</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>7.083</v>
+        <v>3.469</v>
       </c>
       <c r="C368" t="n">
-        <v>13.884</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BBG01198GJR1</t>
+          <t>BBG006QRGSW4</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>7.287</v>
+        <v>7.083</v>
       </c>
       <c r="C369" t="n">
-        <v>12.05</v>
+        <v>13.884</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BBG0073YS7X4</t>
+          <t>BBG01198GJR1</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>6.668</v>
+        <v>7.287</v>
       </c>
       <c r="C370" t="n">
-        <v>1.321</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BBG008H05FK2</t>
+          <t>BBG0073YS7X4</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>5.533</v>
+        <v>6.668</v>
       </c>
       <c r="C371" t="n">
-        <v>11.767</v>
+        <v>1.321</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BBG0021Y1LD7</t>
+          <t>BBG008H05FK2</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>6.478</v>
+        <v>5.533</v>
       </c>
       <c r="C372" t="n">
-        <v>9.938000000000001</v>
+        <v>11.767</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BBG0083CP816</t>
+          <t>BBG0021Y1LD7</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>5.748</v>
+        <v>6.478</v>
       </c>
       <c r="C373" t="n">
-        <v>14.035</v>
+        <v>9.938000000000001</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BBG00D1ZT0S0</t>
+          <t>BBG0083CP816</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>5.823</v>
+        <v>5.748</v>
       </c>
       <c r="C374" t="n">
-        <v>12.59</v>
+        <v>14.035</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BBG007FHVFS2</t>
+          <t>BBG00D1ZT0S0</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>5.775</v>
+        <v>5.823</v>
       </c>
       <c r="C375" t="n">
-        <v>11.867</v>
+        <v>12.59</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BBG01C9WZ3Z9</t>
+          <t>BBG007FHVFS2</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>9.272</v>
+        <v>5.775</v>
       </c>
       <c r="C376" t="n">
-        <v>0.391</v>
+        <v>11.867</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BBG00VHJ5247</t>
+          <t>BBG01C9WZ3Z9</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>5.27</v>
+        <v>9.272</v>
       </c>
       <c r="C377" t="n">
-        <v>1.989</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BBG01G94YTK2</t>
+          <t>BBG00VHJ5247</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>4.154</v>
+        <v>5.27</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8169999999999999</v>
+        <v>1.989</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BBG00008GKL6</t>
+          <t>BBG01G94YTK2</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>5.444</v>
+        <v>4.154</v>
       </c>
       <c r="C379" t="n">
-        <v>8.371</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BBG003PS59M5</t>
+          <t>BBG00008GKL6</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>5.979</v>
+        <v>5.444</v>
       </c>
       <c r="C380" t="n">
-        <v>10.774</v>
+        <v>8.371</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BBG01GGV7HF6</t>
+          <t>BBG003PS59M5</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>4.964</v>
+        <v>5.979</v>
       </c>
       <c r="C381" t="n">
-        <v>6.252</v>
+        <v>10.774</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BBG01GHTZ2H0</t>
+          <t>BBG01GGV7HF6</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>4.408</v>
+        <v>4.964</v>
       </c>
       <c r="C382" t="n">
-        <v>2.404</v>
+        <v>6.252</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BBG01GHMP4K8</t>
+          <t>BBG01GHTZ2H0</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>4.59</v>
+        <v>4.408</v>
       </c>
       <c r="C383" t="n">
-        <v>6.141</v>
+        <v>2.404</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BBG01GNJ4500</t>
+          <t>BBG01GHMP4K8</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>4.104</v>
+        <v>4.59</v>
       </c>
       <c r="C384" t="n">
-        <v>2.464</v>
+        <v>6.141</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BBG014QZPYR3</t>
+          <t>BBG01GNJ4500</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>5.953</v>
+        <v>4.104</v>
       </c>
       <c r="C385" t="n">
-        <v>3.244</v>
+        <v>2.464</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BBG015CV5731</t>
+          <t>BBG014QZPYR3</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>4.968</v>
+        <v>5.953</v>
       </c>
       <c r="C386" t="n">
-        <v>5.627</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BBG013F8WQ23</t>
+          <t>BBG015CV5731</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>5.936</v>
+        <v>4.968</v>
       </c>
       <c r="C387" t="n">
-        <v>5.662</v>
+        <v>5.627</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BBG01GKRFG72</t>
+          <t>BBG013F8WQ23</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>3.934</v>
+        <v>5.936</v>
       </c>
       <c r="C388" t="n">
-        <v>4.073</v>
+        <v>5.662</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BBG011C8W401</t>
+          <t>BBG01GKRFG72</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>4.774</v>
+        <v>3.934</v>
       </c>
       <c r="C389" t="n">
-        <v>2.855</v>
+        <v>4.073</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BBG00VXBC2V8</t>
+          <t>BBG011C8W401</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>4.83</v>
+        <v>4.774</v>
       </c>
       <c r="C390" t="n">
-        <v>4.371</v>
+        <v>2.855</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>BBG00N0V75Z3</t>
+          <t>BBG00VXBC2V8</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>4.505</v>
+        <v>4.83</v>
       </c>
       <c r="C391" t="n">
-        <v>3.041</v>
+        <v>4.371</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>BBG01H50VZF7</t>
+          <t>BBG00N0V75Z3</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>3.707</v>
+        <v>4.505</v>
       </c>
       <c r="C392" t="n">
-        <v>2.669</v>
+        <v>3.041</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>BBG01GVH0SX3</t>
+          <t>BBG01H50VZF7</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>5.132</v>
+        <v>3.707</v>
       </c>
       <c r="C393" t="n">
-        <v>6.087</v>
+        <v>2.669</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>BBG00JS9XFJ8</t>
+          <t>BBG01GVH0SX3</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4.544</v>
+        <v>5.132</v>
       </c>
       <c r="C394" t="n">
-        <v>3.982</v>
+        <v>6.087</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>BBG01HHC4TZ0</t>
+          <t>BBG00JS9XFJ8</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>4.413</v>
+        <v>4.544</v>
       </c>
       <c r="C395" t="n">
-        <v>2.589</v>
+        <v>3.982</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>BBG00Y48CGG7</t>
+          <t>BBG01HHC4TZ0</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>22.207</v>
+        <v>4.413</v>
       </c>
       <c r="C396" t="n">
-        <v>0.217</v>
+        <v>2.589</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BBG01225N521</t>
+          <t>BBG00Y48CGG7</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>7.011</v>
+        <v>22.207</v>
       </c>
       <c r="C397" t="n">
-        <v>11.614</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>BBG0000DXBT8</t>
+          <t>BBG01225N521</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>4.151</v>
+        <v>7.011</v>
       </c>
       <c r="C398" t="n">
-        <v>1.333</v>
+        <v>11.614</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>BBG00006BKP1</t>
+          <t>BBG0000DXBT8</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>64.584</v>
+        <v>4.151</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1.333</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>BBG00BTFT0R9</t>
+          <t>BBG00006BKP1</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>4.431</v>
+        <v>64.584</v>
       </c>
       <c r="C400" t="n">
-        <v>0.388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>BBG00FD4Z3N3</t>
+          <t>BBG00BTFT0R9</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>4.279</v>
+        <v>4.431</v>
       </c>
       <c r="C401" t="n">
-        <v>2.118</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>BBG01H7RQ9N1</t>
+          <t>BBG00FD4Z3N3</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>5.979</v>
+        <v>4.279</v>
       </c>
       <c r="C402" t="n">
-        <v>2.876</v>
+        <v>2.118</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>BBG0000J5XM5</t>
+          <t>BBG01H7RQ9N1</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>4.49</v>
+        <v>5.979</v>
       </c>
       <c r="C403" t="n">
-        <v>1.673</v>
+        <v>2.876</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>BBG01JRZN5C0</t>
+          <t>BBG0000J5XM5</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>6.839</v>
+        <v>4.49</v>
       </c>
       <c r="C404" t="n">
-        <v>0.195</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>BBG010S66338</t>
+          <t>BBG01JRZN5C0</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>7.65</v>
+        <v>6.839</v>
       </c>
       <c r="C405" t="n">
-        <v>4.728</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>BBG0000C4VH1</t>
+          <t>BBG010S66338</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>5.366</v>
+        <v>7.65</v>
       </c>
       <c r="C406" t="n">
-        <v>7.675</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>BBG01JV50590</t>
+          <t>BBG0000C4VH1</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>3.733</v>
+        <v>5.366</v>
       </c>
       <c r="C407" t="n">
-        <v>2.906</v>
+        <v>7.675</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>BBG00BMBZ6V0</t>
+          <t>BBG01JV50590</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>4.303</v>
+        <v>3.733</v>
       </c>
       <c r="C408" t="n">
-        <v>0.312</v>
+        <v>2.906</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>BBG00BBHSZG0</t>
+          <t>BBG00BMBZ6V0</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>4.264</v>
+        <v>4.303</v>
       </c>
       <c r="C409" t="n">
-        <v>0.201</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>BBG01CHXZRS3</t>
+          <t>BBG00BBHSZG0</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>4.273</v>
+        <v>4.264</v>
       </c>
       <c r="C410" t="n">
-        <v>6.332</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>BBG00G91ZCS7</t>
+          <t>BBG01CHXZRS3</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>4.162</v>
+        <v>4.273</v>
       </c>
       <c r="C411" t="n">
-        <v>2.308</v>
+        <v>6.332</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>BBG01GKRNZ17</t>
+          <t>BBG00G91ZCS7</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>4.173</v>
+        <v>4.162</v>
       </c>
       <c r="C412" t="n">
-        <v>4.073</v>
+        <v>2.308</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>BBG01HSW35L2</t>
+          <t>BBG01GKRNZ17</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>4.256</v>
+        <v>4.173</v>
       </c>
       <c r="C413" t="n">
-        <v>4.245</v>
+        <v>4.073</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>BBG011F51HQ1</t>
+          <t>BBG01HSW35L2</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>4.132</v>
+        <v>4.256</v>
       </c>
       <c r="C414" t="n">
-        <v>5.368</v>
+        <v>4.245</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>BBG00FQK9ZF0</t>
+          <t>BBG011F51HQ1</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>4.805</v>
+        <v>4.132</v>
       </c>
       <c r="C415" t="n">
-        <v>1.325</v>
+        <v>5.368</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>BBG00YFS3SJ2</t>
+          <t>BBG00FQK9ZF0</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>5.019</v>
+        <v>4.805</v>
       </c>
       <c r="C416" t="n">
-        <v>0.003</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>BBG00QQ65L26</t>
+          <t>BBG00YFS3SJ2</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>11.181</v>
+        <v>5.019</v>
       </c>
       <c r="C417" t="n">
-        <v>9.148999999999999</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>BBG00FPFKQG8</t>
+          <t>BBG00QQ65L26</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>4.399</v>
+        <v>11.181</v>
       </c>
       <c r="C418" t="n">
-        <v>2.236</v>
+        <v>9.148999999999999</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>BBG014CBNJJ5</t>
+          <t>BBG00FPFKQG8</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>4.478</v>
+        <v>4.399</v>
       </c>
       <c r="C419" t="n">
-        <v>1.374</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>BBG016C3H9C4</t>
+          <t>BBG014CBNJJ5</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>7.717</v>
+        <v>4.478</v>
       </c>
       <c r="C420" t="n">
-        <v>1.469</v>
+        <v>1.374</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>BBG00JS9XFJ8</t>
+          <t>BBG016C3H9C4</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>4.544</v>
+        <v>7.717</v>
       </c>
       <c r="C421" t="n">
-        <v>3.982</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>BBG00ZHZW6V3</t>
+          <t>BBG00JS9XFJ8</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>4.972</v>
+        <v>4.544</v>
       </c>
       <c r="C422" t="n">
-        <v>0.531</v>
+        <v>3.982</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>BBG01KR4STF6</t>
+          <t>BBG00ZHZW6V3</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>3.738</v>
+        <v>4.972</v>
       </c>
       <c r="C423" t="n">
-        <v>3.116</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>BBG00SK8H624</t>
+          <t>BBG01KR4STF6</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>4.325</v>
+        <v>3.738</v>
       </c>
       <c r="C424" t="n">
-        <v>4.076</v>
+        <v>3.116</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>BBG01JZY4GQ6</t>
+          <t>BBG00SK8H624</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>4.149</v>
+        <v>4.325</v>
       </c>
       <c r="C425" t="n">
-        <v>6.772</v>
+        <v>4.076</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>BBG00G7591J3</t>
+          <t>BBG01JZY4GQ6</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>4.381</v>
+        <v>4.149</v>
       </c>
       <c r="C426" t="n">
-        <v>2.387</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>BBG01L0NF8T6</t>
+          <t>BBG00G7591J3</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>4.802</v>
+        <v>4.381</v>
       </c>
       <c r="C427" t="n">
-        <v>1.359</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>BBG00TGKZJN9</t>
+          <t>BBG01L0NF8T6</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>6.489</v>
+        <v>4.802</v>
       </c>
       <c r="C428" t="n">
-        <v>3.708</v>
+        <v>1.359</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>BBG01KR4SPQ2</t>
+          <t>BBG00TGKZJN9</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>4.143</v>
+        <v>6.489</v>
       </c>
       <c r="C429" t="n">
-        <v>0.356</v>
+        <v>3.708</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>BBG014KF8D61</t>
+          <t>BBG01KR4SPQ2</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>5.266</v>
+        <v>4.143</v>
       </c>
       <c r="C430" t="n">
-        <v>5.618</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>BBG01H2KY7W6</t>
+          <t>BBG01L3G1GR7</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>8.446999999999999</v>
+        <v>3</v>
       </c>
       <c r="C431" t="n">
-        <v>3.933</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>BBG007P9GC58</t>
+          <t>BBG014KF8D61</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>4.185</v>
+        <v>5.266</v>
       </c>
       <c r="C432" t="n">
-        <v>1.263</v>
+        <v>5.618</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>BBG01LQT6JN7</t>
+          <t>BBG01H2KY7W6</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>4.751</v>
+        <v>8.446999999999999</v>
       </c>
       <c r="C433" t="n">
-        <v>0.003</v>
+        <v>3.933</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>BBG01LGW2TC5</t>
+          <t>BBG007P9GC58</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>4.349</v>
+        <v>4.185</v>
       </c>
       <c r="C434" t="n">
-        <v>3.099</v>
+        <v>1.263</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>BBG00SZT9Q90</t>
+          <t>BBG01LQT6JN7</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>4.38</v>
+        <v>4.751</v>
       </c>
       <c r="C435" t="n">
-        <v>1.481</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>BBG00QX4FKY9</t>
+          <t>BBG01LGW2TC5</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>5.729</v>
+        <v>4.349</v>
       </c>
       <c r="C436" t="n">
-        <v>0.315</v>
+        <v>3.099</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>BBG0033KCB98</t>
+          <t>BBG00SZT9Q90</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>6.847</v>
+        <v>4.38</v>
       </c>
       <c r="C437" t="n">
-        <v>10.575</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>BBG0000G6XK2</t>
+          <t>BBG00QX4FKY9</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>9.076000000000001</v>
+        <v>5.729</v>
       </c>
       <c r="C438" t="n">
-        <v>7.565</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>BBG016W2FF41</t>
+          <t>BBG0033KCB98</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>4.324</v>
+        <v>6.847</v>
       </c>
       <c r="C439" t="n">
-        <v>0.801</v>
+        <v>10.575</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>BBG00T419VW6</t>
+          <t>BBG0000G6XK2</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>5.438</v>
+        <v>9.076000000000001</v>
       </c>
       <c r="C440" t="n">
-        <v>2.157</v>
+        <v>7.565</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>BBG00004GX28</t>
+          <t>BBG016W2FF41</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>4.162</v>
+        <v>4.324</v>
       </c>
       <c r="C441" t="n">
-        <v>1.726</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>BBG01DMR0CM5</t>
+          <t>BBG00T419VW6</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>4.383</v>
+        <v>5.438</v>
       </c>
       <c r="C442" t="n">
-        <v>0.46</v>
+        <v>2.157</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>BBG01LG6KYT3</t>
+          <t>BBG00004GX28</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>5.067</v>
+        <v>4.162</v>
       </c>
       <c r="C443" t="n">
-        <v>0.003</v>
+        <v>1.726</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>BBG01K7FNPT1</t>
+          <t>BBG01DMR0CM5</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>4.954</v>
+        <v>4.383</v>
       </c>
       <c r="C444" t="n">
-        <v>0.438</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>BBG01HQX22N8</t>
+          <t>BBG01LG6KYT3</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>4.242</v>
+        <v>5.067</v>
       </c>
       <c r="C445" t="n">
-        <v>0.852</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>BBG0000DMZK6</t>
+          <t>BBG01K7FNPT1</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4.366</v>
+        <v>4.954</v>
       </c>
       <c r="C446" t="n">
-        <v>1.003</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>BBG01BTR1K34</t>
+          <t>BBG01HQX22N8</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>3.919</v>
+        <v>4.242</v>
       </c>
       <c r="C447" t="n">
-        <v>2.056</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>BBG01M44ZLG5</t>
+          <t>BBG0000DMZK6</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>4.027</v>
+        <v>4.366</v>
       </c>
       <c r="C448" t="n">
-        <v>0.589</v>
+        <v>1.003</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>BBG016Z4HSV4</t>
+          <t>BBG01BTR1K34</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>5.394</v>
+        <v>3.919</v>
       </c>
       <c r="C449" t="n">
-        <v>2.494</v>
+        <v>2.056</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>BBG00QDWFWP3</t>
+          <t>BBG01M44ZLG5</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>4.617</v>
+        <v>4.027</v>
       </c>
       <c r="C450" t="n">
-        <v>1.073</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>BBG00QYZP811</t>
+          <t>BBG016Z4HSV4</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>5.244</v>
+        <v>5.394</v>
       </c>
       <c r="C451" t="n">
-        <v>2.57</v>
+        <v>2.494</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>BBG00SXGDG79</t>
+          <t>BBG00QDWFWP3</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>4.279</v>
+        <v>4.617</v>
       </c>
       <c r="C452" t="n">
-        <v>1.539</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>BBG00SXGDG79</t>
+          <t>BBG00QYZP811</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>4.279</v>
+        <v>5.244</v>
       </c>
       <c r="C453" t="n">
-        <v>1.539</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>BBG00RDQLVK4</t>
+          <t>BBG00SXGDG79</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>6.071</v>
+        <v>4.279</v>
       </c>
       <c r="C454" t="n">
-        <v>3.887</v>
+        <v>1.539</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>BBG019SQLBS3</t>
+          <t>BBG00SXGDG79</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>5.138</v>
+        <v>4.279</v>
       </c>
       <c r="C455" t="n">
-        <v>0.349</v>
+        <v>1.539</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>BBG00XC9BP88</t>
+          <t>BBG00RDQLVK4</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>6.155</v>
+        <v>6.071</v>
       </c>
       <c r="C456" t="n">
-        <v>0.06900000000000001</v>
+        <v>3.887</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>BBG01GDD7PH9</t>
+          <t>BBG019SQLBS3</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>4.753</v>
+        <v>5.138</v>
       </c>
       <c r="C457" t="n">
-        <v>2.023</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>BBG00CNJBNP6</t>
+          <t>BBG00XC9BP88</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>4.501</v>
+        <v>6.155</v>
       </c>
       <c r="C458" t="n">
-        <v>0.618</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>BBG00CCNVYQ2</t>
+          <t>BBG01GDD7PH9</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>4.952</v>
+        <v>4.753</v>
       </c>
       <c r="C459" t="n">
-        <v>0.315</v>
+        <v>2.023</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>BBG00N5C8FN0</t>
+          <t>BBG00CNJBNP6</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>5.578</v>
+        <v>4.501</v>
       </c>
       <c r="C460" t="n">
-        <v>0.025</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>BBG01F3N9MH5</t>
+          <t>BBG00CCNVYQ2</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>5.641</v>
+        <v>4.952</v>
       </c>
       <c r="C461" t="n">
-        <v>1.404</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>BBG00KMZ1QG7</t>
+          <t>BBG00N5C8FN0</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>7.102</v>
+        <v>5.578</v>
       </c>
       <c r="C462" t="n">
-        <v>11.467</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>BBG00NW1VF94</t>
+          <t>BBG01F3N9MH5</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>5.583</v>
+        <v>5.641</v>
       </c>
       <c r="C463" t="n">
-        <v>0.036</v>
+        <v>1.404</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>BBG01J2RTY18</t>
+          <t>BBG00KMZ1QG7</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>3.72</v>
+        <v>7.102</v>
       </c>
       <c r="C464" t="n">
-        <v>2.764</v>
+        <v>11.467</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>BBG00Y6TNGB2</t>
+          <t>BBG00NW1VF94</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>5.095</v>
+        <v>5.583</v>
       </c>
       <c r="C465" t="n">
-        <v>0.279</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>BBG01N1MHZ66</t>
+          <t>BBG01J2RTY18</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>3.995</v>
+        <v>3.72</v>
       </c>
       <c r="C466" t="n">
-        <v>0.752</v>
+        <v>2.764</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>BBG01MPC8VJ9</t>
+          <t>BBG00Y6TNGB2</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>4.203</v>
+        <v>5.095</v>
       </c>
       <c r="C467" t="n">
-        <v>7.133</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BBG00M546C59</t>
+          <t>BBG01N1MHZ66</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>5.587</v>
+        <v>3.995</v>
       </c>
       <c r="C468" t="n">
-        <v>0.395</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>BBG01MDD8972</t>
+          <t>BBG01MPC8VJ9</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>5.399</v>
+        <v>4.203</v>
       </c>
       <c r="C469" t="n">
-        <v>6.418</v>
+        <v>7.133</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>BBG00ZSKL1Z3</t>
+          <t>BBG00M546C59</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>4.825</v>
+        <v>5.587</v>
       </c>
       <c r="C470" t="n">
-        <v>1.94</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>BBG00CGX6Z54</t>
+          <t>BBG01MDD8972</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>4.282</v>
+        <v>5.399</v>
       </c>
       <c r="C471" t="n">
-        <v>0.593</v>
+        <v>6.418</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>BBG00007ZMW1</t>
+          <t>BBG00ZSKL1Z3</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>4.727</v>
+        <v>4.825</v>
       </c>
       <c r="C472" t="n">
-        <v>0.6820000000000001</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>BBG019LVBKP3</t>
+          <t>BBG00CGX6Z54</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>6.581</v>
+        <v>4.282</v>
       </c>
       <c r="C473" t="n">
-        <v>2.172</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>BBG00G9J3NC6</t>
+          <t>BBG00007ZMW1</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>4.625</v>
+        <v>4.727</v>
       </c>
       <c r="C474" t="n">
-        <v>1.5</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>BBG01MW71TR5</t>
+          <t>BBG019LVBKP3</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>7.426</v>
+        <v>6.581</v>
       </c>
       <c r="C475" t="n">
-        <v>2.443</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>BBG01N09R3C9</t>
+          <t>BBG00G9J3NC6</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>6.47</v>
+        <v>4.625</v>
       </c>
       <c r="C476" t="n">
-        <v>3.455</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>BBG00HZ5VRY1</t>
+          <t>BBG01MW71TR5</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>6.97</v>
+        <v>7.426</v>
       </c>
       <c r="C477" t="n">
-        <v>0.202</v>
+        <v>2.443</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>BBG00H903HV7</t>
+          <t>BBG01N09R3C9</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>4.527</v>
+        <v>6.47</v>
       </c>
       <c r="C478" t="n">
-        <v>1.852</v>
+        <v>3.455</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>BBG014CRC940</t>
+          <t>BBG00HZ5VRY1</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>4.932</v>
+        <v>6.97</v>
       </c>
       <c r="C479" t="n">
-        <v>1.101</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>BBG00P344Z19</t>
+          <t>BBG00H903HV7</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>5.471</v>
+        <v>4.527</v>
       </c>
       <c r="C480" t="n">
-        <v>3.385</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>BBG01L3DFJ02</t>
+          <t>BBG014CRC940</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>4.16</v>
+        <v>4.932</v>
       </c>
       <c r="C481" t="n">
-        <v>0.438</v>
+        <v>1.101</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>BBG01LM16BS4</t>
+          <t>BBG00P344Z19</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>5.219</v>
+        <v>5.471</v>
       </c>
       <c r="C482" t="n">
-        <v>6.505</v>
+        <v>3.385</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>BBG01NWT5Y09</t>
+          <t>BBG01L3DFJ02</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>3.937</v>
+        <v>4.16</v>
       </c>
       <c r="C483" t="n">
-        <v>5.223</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>BBG01NWT5SZ4</t>
+          <t>BBG01LM16BS4</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>3.771</v>
+        <v>5.219</v>
       </c>
       <c r="C484" t="n">
-        <v>3.615</v>
+        <v>6.505</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BBG01P51D7R6</t>
+          <t>BBG01NWT5Y09</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>4.262</v>
+        <v>3.937</v>
       </c>
       <c r="C485" t="n">
-        <v>5.072</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>BBG00P7D7KR7</t>
+          <t>BBG01NWT5SZ4</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>4.207</v>
+        <v>3.771</v>
       </c>
       <c r="C486" t="n">
-        <v>3.464</v>
+        <v>3.615</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>BBG01NY6JWQ8</t>
+          <t>BBG01P51D7R6</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>4.335</v>
+        <v>4.262</v>
       </c>
       <c r="C487" t="n">
-        <v>3.855</v>
+        <v>5.072</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>BBG01P1YBK73</t>
+          <t>BBG00P7D7KR7</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>3.744</v>
+        <v>4.207</v>
       </c>
       <c r="C488" t="n">
-        <v>1.896</v>
+        <v>3.464</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>BBG01PD85MW2</t>
+          <t>BBG01NY6JWQ8</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>5.832</v>
+        <v>4.335</v>
       </c>
       <c r="C489" t="n">
-        <v>3.381</v>
+        <v>3.855</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>BBG01P7G4K29</t>
+          <t>BBG01P1YBK73</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>4.655</v>
+        <v>3.744</v>
       </c>
       <c r="C490" t="n">
-        <v>3.433</v>
+        <v>1.896</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>BBG014C6ZJR4</t>
+          <t>BBG01PD85MW2</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>4.951</v>
+        <v>5.832</v>
       </c>
       <c r="C491" t="n">
-        <v>1.329</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>BBG01GKRF8Q9</t>
+          <t>BBG01P7G4K29</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>5.334</v>
+        <v>4.655</v>
       </c>
       <c r="C492" t="n">
-        <v>2.483</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>BBG012YGTS71</t>
+          <t>BBG014C6ZJR4</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>4.923</v>
+        <v>4.951</v>
       </c>
       <c r="C493" t="n">
-        <v>2.955</v>
+        <v>1.329</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>BBG01LNT2G05</t>
+          <t>BBG01GKRF8Q9</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>5.428</v>
+        <v>5.334</v>
       </c>
       <c r="C494" t="n">
-        <v>4.301</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>BBG01F3YX1P1</t>
+          <t>BBG012YGTS71</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>6.351</v>
+        <v>4.923</v>
       </c>
       <c r="C495" t="n">
-        <v>14.369</v>
+        <v>2.955</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>BBG01PM08QC9</t>
+          <t>BBG01LNT2G05</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>5.621</v>
+        <v>5.428</v>
       </c>
       <c r="C496" t="n">
-        <v>6.876</v>
+        <v>4.301</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>BBG00W2RQPK1</t>
+          <t>BBG01F3YX1P1</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>4.928</v>
+        <v>6.351</v>
       </c>
       <c r="C497" t="n">
-        <v>3.69</v>
+        <v>14.369</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>BBG01MJL12V3</t>
+          <t>BBG01PM08QC9</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>5.712</v>
+        <v>5.621</v>
       </c>
       <c r="C498" t="n">
-        <v>3.14</v>
+        <v>6.876</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>BBG01GY4MTG2</t>
+          <t>BBG00W2RQPK1</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>5.274</v>
+        <v>4.928</v>
       </c>
       <c r="C499" t="n">
-        <v>5.983</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>BBG00T7QVY11</t>
+          <t>BBG01MJL12V3</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>5.646</v>
+        <v>5.712</v>
       </c>
       <c r="C500" t="n">
-        <v>0.078</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>BBG00TFTFFJ6</t>
+          <t>BBG01GY4MTG2</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>4.988</v>
+        <v>5.274</v>
       </c>
       <c r="C501" t="n">
-        <v>4.064</v>
+        <v>5.983</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>BBG0043R3XT1</t>
+          <t>BBG00T7QVY11</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>4.964</v>
+        <v>5.646</v>
       </c>
       <c r="C502" t="n">
-        <v>2.307</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>BBG01DMTY8L4</t>
+          <t>BBG00TFTFFJ6</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>5.347</v>
+        <v>4.988</v>
       </c>
       <c r="C503" t="n">
-        <v>6.097</v>
+        <v>4.064</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>BBG00Y6TNGH6</t>
+          <t>BBG0043R3XT1</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>4.603</v>
+        <v>4.964</v>
       </c>
       <c r="C504" t="n">
-        <v>2.172</v>
+        <v>2.307</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>BBG00ZL68GN6</t>
+          <t>BBG01DMTY8L4</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>4.704</v>
+        <v>5.347</v>
       </c>
       <c r="C505" t="n">
-        <v>0.592</v>
+        <v>6.097</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>BBG00X8R2QB7</t>
+          <t>BBG00Y6TNGH6</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>4.857</v>
+        <v>4.603</v>
       </c>
       <c r="C506" t="n">
-        <v>1.985</v>
+        <v>2.172</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>BBG01PKMBJ80</t>
+          <t>BBG00ZL68GN6</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>4.628</v>
+        <v>4.704</v>
       </c>
       <c r="C507" t="n">
-        <v>3.48</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>BBG00HWFN5T5</t>
+          <t>BBG00X8R2QB7</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>20.471</v>
+        <v>4.857</v>
       </c>
       <c r="C508" t="n">
-        <v>2.046</v>
+        <v>1.985</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BBG01LR4THF9</t>
+          <t>BBG01PKMBJ80</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>4.907</v>
+        <v>4.628</v>
       </c>
       <c r="C509" t="n">
-        <v>3.204</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BBG00YG9FW56</t>
+          <t>BBG00HWFN5T5</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>5.804</v>
+        <v>20.471</v>
       </c>
       <c r="C510" t="n">
-        <v>0.394</v>
+        <v>2.046</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BBG000047X82</t>
+          <t>BBG01LR4THF9</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>7.331</v>
+        <v>4.907</v>
       </c>
       <c r="C511" t="n">
-        <v>0.218</v>
+        <v>3.204</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>BBG01KWPWXN0</t>
+          <t>BBG00YG9FW56</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>4.59</v>
+        <v>5.804</v>
       </c>
       <c r="C512" t="n">
-        <v>2.975</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BBG0178JRTF4</t>
+          <t>BBG000047X82</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>4.608</v>
+        <v>7.331</v>
       </c>
       <c r="C513" t="n">
-        <v>5.631</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>BBG01T2RPXN8</t>
+          <t>BBG01KWPWXN0</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>4.497</v>
+        <v>4.59</v>
       </c>
       <c r="C514" t="n">
-        <v>3.951</v>
+        <v>2.975</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BBG006R54KG9</t>
+          <t>BBG0178JRTF4</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>5.089</v>
+        <v>4.608</v>
       </c>
       <c r="C515" t="n">
-        <v>7.206</v>
+        <v>5.631</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>BBG00P7D5SF5</t>
+          <t>BBG01T2RPXN8</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>4.835</v>
+        <v>4.497</v>
       </c>
       <c r="C516" t="n">
-        <v>3.442</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>BBG00QTYLNR3</t>
+          <t>BBG006R54KG9</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>5.203</v>
+        <v>5.089</v>
       </c>
       <c r="C517" t="n">
-        <v>2.067</v>
+        <v>7.206</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>BBG01QB5DK99</t>
+          <t>BBG00P7D5SF5</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>4.994</v>
+        <v>4.835</v>
       </c>
       <c r="C518" t="n">
-        <v>1.133</v>
+        <v>3.442</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>BBG01QB5DK17</t>
+          <t>BBG00QTYLNR3</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>5.805</v>
+        <v>5.203</v>
       </c>
       <c r="C519" t="n">
-        <v>6.992</v>
+        <v>2.067</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>BBG01QG51YG9</t>
+          <t>BBG018WMWRL9</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>5.506</v>
+        <v>3</v>
       </c>
       <c r="C520" t="n">
-        <v>7.081</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>BBG01Q1TYKQ6</t>
+          <t>BBG01QB5DK99</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>4.311</v>
+        <v>4.994</v>
       </c>
       <c r="C521" t="n">
-        <v>0.117</v>
+        <v>1.133</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>BBG00PD41K14</t>
+          <t>BBG01QB5DK17</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>5.078</v>
+        <v>5.805</v>
       </c>
       <c r="C522" t="n">
-        <v>1.826</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>BBG01QHNN621</t>
+          <t>BBG01QG51YG9</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>4.206</v>
+        <v>5.506</v>
       </c>
       <c r="C523" t="n">
-        <v>0.193</v>
+        <v>7.081</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>BBG01PNYH7L6</t>
+          <t>BBG01Q1TYKQ6</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>5.578</v>
+        <v>4.311</v>
       </c>
       <c r="C524" t="n">
-        <v>1.885</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>BBG01BG1V9Z2</t>
+          <t>BBG00PD41K14</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>5.954</v>
+        <v>5.078</v>
       </c>
       <c r="C525" t="n">
-        <v>0.233</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>BBG00F5RQC97</t>
+          <t>BBG01QHNN621</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>3.881</v>
+        <v>4.206</v>
       </c>
       <c r="C526" t="n">
-        <v>1.198</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>BBG0134TVM29</t>
+          <t>BBG01PNYH7L6</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>3.907</v>
+        <v>5.578</v>
       </c>
       <c r="C527" t="n">
-        <v>1.164</v>
+        <v>1.885</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>BBG00NW1Y156</t>
+          <t>BBG01BG1V9Z2</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>5.682</v>
+        <v>5.954</v>
       </c>
       <c r="C528" t="n">
-        <v>1.572</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>BBG011B7SKP6</t>
+          <t>BBG00F5RQC97</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>5.338</v>
+        <v>3.881</v>
       </c>
       <c r="C529" t="n">
-        <v>0.154</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>BBG00Z47VWJ7</t>
+          <t>BBG0134TVM29</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>5.693</v>
+        <v>3.907</v>
       </c>
       <c r="C530" t="n">
-        <v>0.448</v>
+        <v>1.164</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>BBG01QXV8JS6</t>
+          <t>BBG00NW1Y156</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>5.259</v>
+        <v>5.682</v>
       </c>
       <c r="C531" t="n">
-        <v>0.003</v>
+        <v>1.572</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>BBG0131XXDL0</t>
+          <t>BBG011B7SKP6</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>5.288</v>
+        <v>5.338</v>
       </c>
       <c r="C532" t="n">
-        <v>0.438</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>BBG00XC9CT16</t>
+          <t>BBG00Z47VWJ7</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>5.12</v>
+        <v>5.693</v>
       </c>
       <c r="C533" t="n">
-        <v>2.751</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>BBG01R3XTG97</t>
+          <t>BBG01QXV8JS6</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>4.868</v>
+        <v>5.259</v>
       </c>
       <c r="C534" t="n">
-        <v>3.695</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>BBG01QZFYGH8</t>
+          <t>BBG0131XXDL0</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>4.179</v>
+        <v>5.288</v>
       </c>
       <c r="C535" t="n">
-        <v>0.271</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>BBG01QZFYD58</t>
+          <t>BBG00XC9CT16</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>3.792</v>
+        <v>5.12</v>
       </c>
       <c r="C536" t="n">
-        <v>3.861</v>
+        <v>2.751</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>BBG01RF3D3T4</t>
+          <t>BBG01R3XTG97</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>4.115</v>
+        <v>4.868</v>
       </c>
       <c r="C537" t="n">
-        <v>0.346</v>
+        <v>3.695</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>BBG00005R711</t>
+          <t>BBG01QZFYGH8</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>4.445</v>
+        <v>4.179</v>
       </c>
       <c r="C538" t="n">
-        <v>2.329</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>BBG001YF6PS4</t>
+          <t>BBG01QZFYD58</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>6.191</v>
+        <v>3.792</v>
       </c>
       <c r="C539" t="n">
-        <v>9.771000000000001</v>
+        <v>3.861</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>BBG002N8R5L8</t>
+          <t>BBG01RF3D3T4</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>4.224</v>
+        <v>4.115</v>
       </c>
       <c r="C540" t="n">
-        <v>5.509</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BBG00YS3Y527</t>
+          <t>BBG00005R711</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>4.4</v>
+        <v>4.445</v>
       </c>
       <c r="C541" t="n">
-        <v>5.038</v>
+        <v>2.329</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>BBG00ZHCFNY3</t>
+          <t>BBG001YF6PS4</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>4.189</v>
+        <v>6.191</v>
       </c>
       <c r="C542" t="n">
-        <v>5.094</v>
+        <v>9.771000000000001</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>BBG01H6WSCT6</t>
+          <t>BBG002N8R5L8</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>5.927</v>
+        <v>4.224</v>
       </c>
       <c r="C543" t="n">
-        <v>5.934</v>
+        <v>5.509</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BBG000068KS2</t>
+          <t>BBG00YS3Y527</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>7.273</v>
+        <v>4.4</v>
       </c>
       <c r="C544" t="n">
-        <v>0.07099999999999999</v>
+        <v>5.038</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>BBG01RR8DS51</t>
+          <t>BBG00ZHCFNY3</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>5.186</v>
+        <v>4.189</v>
       </c>
       <c r="C545" t="n">
-        <v>3.812</v>
+        <v>5.094</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>BBG01KJCQ7H5</t>
+          <t>BBG01H6WSCT6</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>4.328</v>
+        <v>5.927</v>
       </c>
       <c r="C546" t="n">
-        <v>2.996</v>
+        <v>5.934</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BBG00PT7KLS8</t>
+          <t>BBG000068KS2</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>4.417</v>
+        <v>7.273</v>
       </c>
       <c r="C547" t="n">
-        <v>3.65</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>BBG016LSH118</t>
+          <t>BBG01RR8DS51</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>5.744</v>
+        <v>5.186</v>
       </c>
       <c r="C548" t="n">
-        <v>5.147</v>
+        <v>3.812</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>BBG01RXV9095</t>
+          <t>BBG01KJCQ7H5</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>7.071</v>
+        <v>4.328</v>
       </c>
       <c r="C549" t="n">
-        <v>3.697</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>BBG00HYY8C87</t>
+          <t>BBG00PT7KLS8</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>4.457</v>
+        <v>4.417</v>
       </c>
       <c r="C550" t="n">
-        <v>2.017</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>BBG01RPWMFK1</t>
+          <t>BBG016LSH118</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>5.202</v>
+        <v>5.744</v>
       </c>
       <c r="C551" t="n">
-        <v>3.935</v>
+        <v>5.147</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>BBG01RP52FZ6</t>
+          <t>BBG01RXV9095</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>5.424</v>
+        <v>7.071</v>
       </c>
       <c r="C552" t="n">
-        <v>3.636</v>
+        <v>3.697</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>BBG00W1NXWS0</t>
+          <t>BBG00HYY8C87</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>5.427</v>
+        <v>4.457</v>
       </c>
       <c r="C553" t="n">
-        <v>4.239</v>
+        <v>2.017</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>BBG00TNTZNY1</t>
+          <t>BBG01RPWMFK1</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>4.511</v>
+        <v>5.202</v>
       </c>
       <c r="C554" t="n">
-        <v>4.989</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>BBG01RV9W4F5</t>
+          <t>BBG01RP52FZ6</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>4.072</v>
+        <v>5.424</v>
       </c>
       <c r="C555" t="n">
-        <v>0.417</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>BBG01RQTR2D9</t>
+          <t>BBG00W1NXWS0</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>4.242</v>
+        <v>5.427</v>
       </c>
       <c r="C556" t="n">
-        <v>3.931</v>
+        <v>4.239</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>BBG01LTXKLM5</t>
+          <t>BBG00TNTZNY1</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>4.362</v>
+        <v>4.511</v>
       </c>
       <c r="C557" t="n">
-        <v>3.154</v>
+        <v>4.989</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>BBG01RV6JPZ7</t>
+          <t>BBG01RV9W4F5</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>5.085</v>
+        <v>4.072</v>
       </c>
       <c r="C558" t="n">
-        <v>0.003</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>BBG01RVZTJK2</t>
+          <t>BBG01RQTR2D9</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>5.085</v>
+        <v>4.242</v>
       </c>
       <c r="C559" t="n">
-        <v>0.003</v>
+        <v>3.931</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>BBG00DHT6887</t>
+          <t>BBG01LTXKLM5</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>4.912</v>
+        <v>4.362</v>
       </c>
       <c r="C560" t="n">
-        <v>0.922</v>
+        <v>3.154</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>BBG00Q6B3T31</t>
+          <t>BBG01RV6JPZ7</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>5.138</v>
+        <v>5.085</v>
       </c>
       <c r="C561" t="n">
-        <v>1.912</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>BBG012YGTVG4</t>
+          <t>BBG01RVZTJK2</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>4.863</v>
+        <v>5.085</v>
       </c>
       <c r="C562" t="n">
-        <v>2.956</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>BBG01RXRZ969</t>
+          <t>BBG00DHT6887</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>4.929</v>
+        <v>4.912</v>
       </c>
       <c r="C563" t="n">
-        <v>0.003</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>BBG01NK90PX4</t>
+          <t>BBG00Q6B3T31</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>6.009</v>
+        <v>5.138</v>
       </c>
       <c r="C564" t="n">
-        <v>3.28</v>
+        <v>1.912</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>BBG01QKHSMP5</t>
+          <t>BBG012YGTVG4</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>4.255</v>
+        <v>4.863</v>
       </c>
       <c r="C565" t="n">
-        <v>7.491</v>
+        <v>2.956</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>BBG011Y7VTR6</t>
+          <t>BBG01RXRZ969</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>5.629</v>
+        <v>4.929</v>
       </c>
       <c r="C566" t="n">
-        <v>2.734</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>BBG01HQK91T5</t>
+          <t>BBG01S53T815</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>5.462</v>
+        <v>3</v>
       </c>
       <c r="C567" t="n">
-        <v>0.947</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>BBG00RDH2SQ6</t>
+          <t>BBG01NK90PX4</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>4.786</v>
+        <v>6.009</v>
       </c>
       <c r="C568" t="n">
-        <v>3.634</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>BBG00RN2M5B2</t>
+          <t>BBG01QKHSMP5</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>3.785</v>
+        <v>4.255</v>
       </c>
       <c r="C569" t="n">
-        <v>4.266</v>
+        <v>7.491</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>BBG000FSC999</t>
+          <t>BBG011Y7VTR6</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>4.648</v>
+        <v>5.629</v>
       </c>
       <c r="C570" t="n">
-        <v>10.46</v>
+        <v>2.734</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>BBG01F5V0FC4</t>
+          <t>BBG01HQK91T5</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>15.367</v>
+        <v>5.462</v>
       </c>
       <c r="C571" t="n">
-        <v>5.047</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>BBG0000BQRS6</t>
+          <t>BBG00RDH2SQ6</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>4.582</v>
+        <v>4.786</v>
       </c>
       <c r="C572" t="n">
-        <v>0.433</v>
+        <v>3.634</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>BBG000047KV4</t>
+          <t>BBG00RN2M5B2</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>44.319</v>
+        <v>3.785</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>4.266</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>BBG01JLH8JY9</t>
+          <t>BBG000FSC999</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>7.932</v>
+        <v>4.648</v>
       </c>
       <c r="C574" t="n">
-        <v>5.197</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>BBG00GXJCQB3</t>
+          <t>BBG01F5V0FC4</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>4.704</v>
+        <v>15.367</v>
       </c>
       <c r="C575" t="n">
-        <v>1.481</v>
+        <v>5.047</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>BBG00ZMFQKV7</t>
+          <t>BBG0000BQRS6</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>4.417</v>
+        <v>4.582</v>
       </c>
       <c r="C576" t="n">
-        <v>2.416</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>BBG01SBDZRQ0</t>
+          <t>BBG000047KV4</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>4.238</v>
+        <v>44.319</v>
       </c>
       <c r="C577" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>BBG00VZR5Z55</t>
+          <t>BBG01JLH8JY9</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>5.353</v>
+        <v>7.932</v>
       </c>
       <c r="C578" t="n">
-        <v>1.793</v>
+        <v>5.197</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>BBG01PNNP3T2</t>
+          <t>BBG00GXJCQB3</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>7.75</v>
+        <v>4.704</v>
       </c>
       <c r="C579" t="n">
-        <v>3.514</v>
+        <v>1.481</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>BBG01KY1MDH3</t>
+          <t>BBG00ZMFQKV7</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>8.276999999999999</v>
+        <v>4.417</v>
       </c>
       <c r="C580" t="n">
-        <v>6.721</v>
+        <v>2.416</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>BBG01QK8Q262</t>
+          <t>BBG01SBDZRQ0</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>4.122</v>
+        <v>4.238</v>
       </c>
       <c r="C581" t="n">
-        <v>1.998</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>BBG01SMJVJ05</t>
+          <t>BBG00VZR5Z55</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>4.311</v>
+        <v>5.353</v>
       </c>
       <c r="C582" t="n">
-        <v>0.06</v>
+        <v>1.793</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>BBG01JH09PK1</t>
+          <t>BBG01PNNP3T2</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>3.724</v>
+        <v>7.75</v>
       </c>
       <c r="C583" t="n">
-        <v>2.835</v>
+        <v>3.514</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>BBG00G2BVGX1</t>
+          <t>BBG01KY1MDH3</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>6.902</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="C584" t="n">
-        <v>2.906</v>
+        <v>6.721</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>BBG011Q3WB83</t>
+          <t>BBG01QK8Q262</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>4.685</v>
+        <v>4.122</v>
       </c>
       <c r="C585" t="n">
-        <v>5.348</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>BBG019SQ9ZW9</t>
+          <t>BBG01SMJVJ05</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>6.95</v>
+        <v>4.311</v>
       </c>
       <c r="C586" t="n">
-        <v>2.727</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>BBG010423K56</t>
+          <t>BBG01JH09PK1</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>6.59</v>
+        <v>3.724</v>
       </c>
       <c r="C587" t="n">
-        <v>3.176</v>
+        <v>2.835</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>BBG01GNYCG86</t>
+          <t>BBG00G2BVGX1</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>5.001</v>
+        <v>6.902</v>
       </c>
       <c r="C588" t="n">
-        <v>5.936</v>
+        <v>2.906</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>BBG00XDH7864</t>
+          <t>BBG011Q3WB83</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>5.772</v>
+        <v>4.685</v>
       </c>
       <c r="C589" t="n">
-        <v>0.314</v>
+        <v>5.348</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>BBG01FC87YK0</t>
+          <t>BBG019SQ9ZW9</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>3.796</v>
+        <v>6.95</v>
       </c>
       <c r="C590" t="n">
-        <v>4.037</v>
+        <v>2.727</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>BBG01T1YK8Y2</t>
+          <t>BBG010423K56</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>4.607</v>
+        <v>6.59</v>
       </c>
       <c r="C591" t="n">
-        <v>3.933</v>
+        <v>3.176</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>BBG0180YYG94</t>
+          <t>BBG01GNYCG86</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>4.867</v>
+        <v>5.001</v>
       </c>
       <c r="C592" t="n">
-        <v>5.5</v>
+        <v>5.936</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>BBG01GF4KYZ3</t>
+          <t>BBG00XDH7864</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>8.569000000000001</v>
+        <v>5.772</v>
       </c>
       <c r="C593" t="n">
-        <v>2.916</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>BBG00MFJPBK9</t>
+          <t>BBG01FC87YK0</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>3.731</v>
+        <v>3.796</v>
       </c>
       <c r="C594" t="n">
-        <v>3.021</v>
+        <v>4.037</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>BBG01MT1FKJ5</t>
+          <t>BBG01T1YK8Y2</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>5.007</v>
+        <v>4.607</v>
       </c>
       <c r="C595" t="n">
-        <v>28.035</v>
+        <v>3.933</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>BBG01M3FYM52</t>
+          <t>BBG0180YYG94</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>7.497</v>
+        <v>4.867</v>
       </c>
       <c r="C596" t="n">
-        <v>3.001</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>BBG013XYL5L3</t>
+          <t>BBG01GF4KYZ3</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>7.075</v>
+        <v>8.569000000000001</v>
       </c>
       <c r="C597" t="n">
-        <v>0.312</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>BBG01P1YBJQ5</t>
+          <t>BBG00MFJPBK9</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>4.232</v>
+        <v>3.731</v>
       </c>
       <c r="C598" t="n">
-        <v>7.49</v>
+        <v>3.021</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>BBG00DJ1B7D6</t>
+          <t>BBG01MT1FKJ5</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>4.628</v>
+        <v>5.007</v>
       </c>
       <c r="C599" t="n">
-        <v>8.890000000000001</v>
+        <v>28.035</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>BBG008LS4VN9</t>
+          <t>BBG01M3FYM52</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>5.215</v>
+        <v>7.497</v>
       </c>
       <c r="C600" t="n">
-        <v>7.799</v>
+        <v>3.001</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>BBG00VY21L38</t>
+          <t>BBG013XYL5L3</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>4.22</v>
+        <v>7.075</v>
       </c>
       <c r="C601" t="n">
-        <v>2.805</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>BBG01T5XYS99</t>
+          <t>BBG01P1YBJQ5</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>4.992</v>
+        <v>4.232</v>
       </c>
       <c r="C602" t="n">
-        <v>2.368</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>BBG012J07MN2</t>
+          <t>BBG00DJ1B7D6</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>5.002</v>
+        <v>4.628</v>
       </c>
       <c r="C603" t="n">
-        <v>5.509</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>BBG01T4PDX53</t>
+          <t>BBG008LS4VN9</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>4.256</v>
+        <v>5.215</v>
       </c>
       <c r="C604" t="n">
-        <v>0.136</v>
+        <v>7.799</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>BBG01PJH4PJ5</t>
+          <t>BBG00VY21L38</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>4.293</v>
+        <v>4.22</v>
       </c>
       <c r="C605" t="n">
-        <v>0.041</v>
+        <v>2.805</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>BBG00Y6T4340</t>
+          <t>BBG01T5XYS99</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>4.274</v>
+        <v>4.992</v>
       </c>
       <c r="C606" t="n">
-        <v>0.482</v>
+        <v>2.368</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>BBG01SW0B5W2</t>
+          <t>BBG012J07MN2</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>3.81</v>
+        <v>5.002</v>
       </c>
       <c r="C607" t="n">
-        <v>4.117</v>
+        <v>5.509</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>BBG01RYZYM80</t>
+          <t>BBG01T4PDX53</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>3.803</v>
+        <v>4.256</v>
       </c>
       <c r="C608" t="n">
-        <v>4.016</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>BBG00RT7H8J7</t>
+          <t>BBG01PJH4PJ5</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>4.707</v>
+        <v>4.293</v>
       </c>
       <c r="C609" t="n">
-        <v>3.988</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>BBG00VSF0P29</t>
+          <t>BBG00Y6T4340</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>4.488</v>
+        <v>4.274</v>
       </c>
       <c r="C610" t="n">
-        <v>4.535</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>BBG00HBFK9Z6</t>
+          <t>BBG01SW0B5W2</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>5.003</v>
+        <v>3.81</v>
       </c>
       <c r="C611" t="n">
-        <v>1.843</v>
+        <v>4.117</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>BBG00ZKWS2J4</t>
+          <t>BBG01RYZYM80</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>4.987</v>
+        <v>3.803</v>
       </c>
       <c r="C612" t="n">
-        <v>0.542</v>
+        <v>4.016</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>BBG0132LMV00</t>
+          <t>BBG00RT7H8J7</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>4.612</v>
+        <v>4.707</v>
       </c>
       <c r="C613" t="n">
-        <v>2.955</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>BBG015QF67C0</t>
+          <t>BBG00VSF0P29</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>4.629</v>
+        <v>4.488</v>
       </c>
       <c r="C614" t="n">
-        <v>5.746</v>
+        <v>4.535</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>BBG01T8LCHN4</t>
+          <t>BBG00HBFK9Z6</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>3.928</v>
+        <v>5.003</v>
       </c>
       <c r="C615" t="n">
-        <v>0.644</v>
+        <v>1.843</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>BBG00XNP9701</t>
+          <t>BBG00ZKWS2J4</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>4.965</v>
+        <v>4.987</v>
       </c>
       <c r="C616" t="n">
-        <v>4.505</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>BBG0192W27G1</t>
+          <t>BBG0132LMV00</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>5.118</v>
+        <v>4.612</v>
       </c>
       <c r="C617" t="n">
-        <v>5.775</v>
+        <v>2.955</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>BBG01NG25L95</t>
+          <t>BBG015QF67C0</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>3.77</v>
+        <v>4.629</v>
       </c>
       <c r="C618" t="n">
-        <v>3.519</v>
+        <v>5.746</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>BBG00XGCTQJ4</t>
+          <t>BBG01T8LCHN4</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>5.887</v>
+        <v>3.928</v>
       </c>
       <c r="C619" t="n">
-        <v>5.75</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>BBG01T8LCHP2</t>
+          <t>BBG00XNP9701</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>4.23</v>
+        <v>4.965</v>
       </c>
       <c r="C620" t="n">
-        <v>0.155</v>
+        <v>4.505</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>BBG00WYXCK74</t>
+          <t>BBG0192W27G1</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>4.813</v>
+        <v>5.118</v>
       </c>
       <c r="C621" t="n">
-        <v>6.351</v>
+        <v>5.775</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>BBG010SWJ5N0</t>
+          <t>BBG01NG25L95</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>3.917</v>
+        <v>3.77</v>
       </c>
       <c r="C622" t="n">
-        <v>5.351</v>
+        <v>3.519</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>BBG00NR784G0</t>
+          <t>BBG00XGCTQJ4</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>5.858</v>
+        <v>5.887</v>
       </c>
       <c r="C623" t="n">
-        <v>0.025</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>BBG01SGH86Q2</t>
+          <t>BBG01T8LCHP2</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>5.204</v>
+        <v>4.23</v>
       </c>
       <c r="C624" t="n">
-        <v>3.763</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>BBG01S51CWB3</t>
+          <t>BBG00WYXCK74</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>4.183</v>
+        <v>4.813</v>
       </c>
       <c r="C625" t="n">
-        <v>3.996</v>
+        <v>6.351</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>BBG00CW2H790</t>
+          <t>BBG010SWJ5N0</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>5.408</v>
+        <v>3.917</v>
       </c>
       <c r="C626" t="n">
-        <v>0.694</v>
+        <v>5.351</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>BBG004H68H21</t>
+          <t>BBG00NR784G0</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>6.453</v>
+        <v>5.858</v>
       </c>
       <c r="C627" t="n">
-        <v>10.569</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>BBG01TS36H04</t>
+          <t>BBG01SGH86Q2</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>5.553</v>
+        <v>5.204</v>
       </c>
       <c r="C628" t="n">
-        <v>5.261</v>
+        <v>3.763</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>BBG01TS3JJ60</t>
+          <t>BBG01S51CWB3</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>5.266</v>
+        <v>4.183</v>
       </c>
       <c r="C629" t="n">
-        <v>3.959</v>
+        <v>3.996</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>BBG01TG14R10</t>
+          <t>BBG00CW2H790</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>4.017</v>
+        <v>5.408</v>
       </c>
       <c r="C630" t="n">
-        <v>5.754</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>BBG01TVSK4Q0</t>
+          <t>BBG004H68H21</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>5.355</v>
+        <v>6.453</v>
       </c>
       <c r="C631" t="n">
-        <v>5.276</v>
+        <v>10.569</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>BBG01TVSY1R0</t>
+          <t>BBG01TS36H04</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>6.386</v>
+        <v>5.553</v>
       </c>
       <c r="C632" t="n">
-        <v>3.795</v>
+        <v>5.261</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>BBG019VV34M0</t>
+          <t>BBG01TS3JJ60</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>4.29</v>
+        <v>5.266</v>
       </c>
       <c r="C633" t="n">
-        <v>2.387</v>
+        <v>3.959</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>BBG019VV34G7</t>
+          <t>BBG01TG14R10</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>4.324</v>
+        <v>4.017</v>
       </c>
       <c r="C634" t="n">
-        <v>0.602</v>
+        <v>5.754</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>BBG00M910K68</t>
+          <t>BBG01TVSK4Q0</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>11.725</v>
+        <v>5.355</v>
       </c>
       <c r="C635" t="n">
-        <v>2.71</v>
+        <v>5.276</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>BBG00V7RHPP3</t>
+          <t>BBG01TVSY1R0</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>4.987</v>
+        <v>6.386</v>
       </c>
       <c r="C636" t="n">
-        <v>4.285</v>
+        <v>3.795</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>BBG01TTN60H8</t>
+          <t>BBG019VV34M0</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>4.217</v>
+        <v>4.29</v>
       </c>
       <c r="C637" t="n">
-        <v>0.231</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>BBG01TTN60G9</t>
+          <t>BBG019VV34G7</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>4.312</v>
+        <v>4.324</v>
       </c>
       <c r="C638" t="n">
-        <v>0.055</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>BBG018FYVSD0</t>
+          <t>BBG00M910K68</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>3.762</v>
+        <v>11.725</v>
       </c>
       <c r="C639" t="n">
-        <v>3.575</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>BBG01JX4HJC9</t>
+          <t>BBG00V7RHPP3</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>5.506</v>
+        <v>4.987</v>
       </c>
       <c r="C640" t="n">
-        <v>0.193</v>
+        <v>4.285</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>BBG00ZQT8CJ5</t>
+          <t>BBG01TTN60H8</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>5.615</v>
+        <v>4.217</v>
       </c>
       <c r="C641" t="n">
-        <v>4.795</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>BBG019XCV6X2</t>
+          <t>BBG01TTN60G9</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>4.564</v>
+        <v>4.312</v>
       </c>
       <c r="C642" t="n">
-        <v>1.95</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>BBG00THX2SL8</t>
+          <t>BBG018FYVSD0</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>4.577</v>
+        <v>3.762</v>
       </c>
       <c r="C643" t="n">
-        <v>0.111</v>
+        <v>3.575</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>BBG01KZJ6VK7</t>
+          <t>BBG01JX4HJC9</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>4.852</v>
+        <v>5.506</v>
       </c>
       <c r="C644" t="n">
-        <v>3.073</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>BBG01TXYTZR6</t>
+          <t>BBG00ZQT8CJ5</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>4.204</v>
+        <v>5.615</v>
       </c>
       <c r="C645" t="n">
-        <v>0.249</v>
+        <v>4.795</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>BBG00XKLXL14</t>
+          <t>BBG019XCV6X2</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>7.526</v>
+        <v>4.564</v>
       </c>
       <c r="C646" t="n">
-        <v>4.507</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>BBG01TMGD135</t>
+          <t>BBG00THX2SL8</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>4.261</v>
+        <v>4.577</v>
       </c>
       <c r="C647" t="n">
-        <v>0.016</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>BBG01K1ZFQQ3</t>
+          <t>BBG01KZJ6VK7</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>4.258</v>
+        <v>4.852</v>
       </c>
       <c r="C648" t="n">
-        <v>4.355</v>
+        <v>3.073</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>BBG00PQFMFZ6</t>
+          <t>BBG01TXYTZR6</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>5.017</v>
+        <v>4.204</v>
       </c>
       <c r="C649" t="n">
-        <v>4.041</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>BBG00XGD0FJ7</t>
+          <t>BBG00XKLXL14</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>4.31</v>
+        <v>7.526</v>
       </c>
       <c r="C650" t="n">
-        <v>2.331</v>
+        <v>4.507</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>BBG00HYZBB00</t>
+          <t>BBG01TMGD135</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>4.707</v>
+        <v>4.261</v>
       </c>
       <c r="C651" t="n">
-        <v>2.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>BBG01V306M83</t>
+          <t>BBG01K1ZFQQ3</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>4.31</v>
+        <v>4.258</v>
       </c>
       <c r="C652" t="n">
-        <v>0.093</v>
+        <v>4.355</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>BBG01V8FB5T3</t>
+          <t>BBG00PQFMFZ6</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>8.138</v>
+        <v>5.017</v>
       </c>
       <c r="C653" t="n">
-        <v>3.854</v>
+        <v>4.041</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>BBG01S6Z6VH0</t>
+          <t>BBG00XGD0FJ7</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>4.213</v>
+        <v>4.31</v>
       </c>
       <c r="C654" t="n">
-        <v>0.003</v>
+        <v>2.331</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>BBG01V306M56</t>
+          <t>BBG00HYZBB00</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>3.812</v>
+        <v>4.707</v>
       </c>
       <c r="C655" t="n">
-        <v>4.28</v>
+        <v>2.017</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>BBG01V7GYTJ6</t>
+          <t>BBG01V306M83</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>4.17</v>
+        <v>4.31</v>
       </c>
       <c r="C656" t="n">
-        <v>0.287</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>BBG01L10KBD9</t>
+          <t>BBG01V8FB5T3</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>4.277</v>
+        <v>8.138</v>
       </c>
       <c r="C657" t="n">
-        <v>1.365</v>
+        <v>3.854</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>BBG01RRM6665</t>
+          <t>BBG01S6Z6VH0</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>4.1</v>
+        <v>4.213</v>
       </c>
       <c r="C658" t="n">
-        <v>2.269</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>BBG01VBK92P2</t>
+          <t>BBG01V306M56</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>3.908</v>
+        <v>3.812</v>
       </c>
       <c r="C659" t="n">
-        <v>0.795</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>BBG01TXYTZS5</t>
+          <t>BBG01V7GYTJ6</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>4.342</v>
+        <v>4.17</v>
       </c>
       <c r="C660" t="n">
-        <v>0.074</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>BBG01TYK5MW4</t>
+          <t>BBG01L10KBD9</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>5.674</v>
+        <v>4.277</v>
       </c>
       <c r="C661" t="n">
-        <v>0.709</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>BBG01VH5YR85</t>
+          <t>BBG01RRM6665</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>5.474</v>
+        <v>4.1</v>
       </c>
       <c r="C662" t="n">
-        <v>0.782</v>
+        <v>2.269</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>BBG01VR04YS1</t>
+          <t>BBG01VBK92P2</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>5.476</v>
+        <v>3.908</v>
       </c>
       <c r="C663" t="n">
-        <v>5.46</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>BBG01VT5QV82</t>
+          <t>BBG01TXYTZS5</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>6.787</v>
+        <v>4.342</v>
       </c>
       <c r="C664" t="n">
-        <v>3.305</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>BBG01HTKCM21</t>
+          <t>BBG01TYK5MW4</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>8.348000000000001</v>
+        <v>5.674</v>
       </c>
       <c r="C665" t="n">
-        <v>0.078</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>BBG01V7GYTM2</t>
+          <t>BBG01VH5YR85</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>4.311</v>
+        <v>5.474</v>
       </c>
       <c r="C666" t="n">
-        <v>0.112</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>BBG01NK9DR75</t>
+          <t>BBG01VR04YS1</t>
         </is>
       </c>
       <c r="B667" t="n">
-        <v>6.317</v>
+        <v>5.476</v>
       </c>
       <c r="C667" t="n">
-        <v>5.382</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>BBG01S67JVG9</t>
+          <t>BBG01VT5QV82</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>5.712</v>
+        <v>6.787</v>
       </c>
       <c r="C668" t="n">
-        <v>4.754</v>
+        <v>3.305</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>BBG01Q89JZW0</t>
+          <t>BBG01HTKCM21</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>5.894</v>
+        <v>8.348000000000001</v>
       </c>
       <c r="C669" t="n">
-        <v>3.784</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>BBG01HHN6XZ5</t>
+          <t>BBG01V7GYTM2</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>6.246</v>
+        <v>4.311</v>
       </c>
       <c r="C670" t="n">
-        <v>5.938</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>BBG01JFK4P33</t>
+          <t>BBG01NK9DR75</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>7.491</v>
+        <v>6.317</v>
       </c>
       <c r="C671" t="n">
-        <v>2.749</v>
+        <v>5.382</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>BBG01J6K6L30</t>
+          <t>BBG01S67JVG9</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>7.212</v>
+        <v>5.712</v>
       </c>
       <c r="C672" t="n">
-        <v>2.593</v>
+        <v>4.754</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>BBG01VG6D5F7</t>
+          <t>BBG01Q89JZW0</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>7.059</v>
+        <v>5.894</v>
       </c>
       <c r="C673" t="n">
-        <v>5.044</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>BBG00Z5HYQB2</t>
+          <t>BBG01HHN6XZ5</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>7.486</v>
+        <v>6.246</v>
       </c>
       <c r="C674" t="n">
-        <v>4.695</v>
+        <v>5.938</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>BBG01QYDHPX5</t>
+          <t>BBG01JFK4P33</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>4.883</v>
+        <v>7.491</v>
       </c>
       <c r="C675" t="n">
-        <v>5.12</v>
+        <v>2.749</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>BBG01VKC4GK9</t>
+          <t>BBG01J6K6L30</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>3.825</v>
+        <v>7.212</v>
       </c>
       <c r="C676" t="n">
-        <v>4.372</v>
+        <v>2.593</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>BBG01L0NNVT6</t>
+          <t>BBG01VG6D5F7</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>4.159</v>
+        <v>7.059</v>
       </c>
       <c r="C677" t="n">
-        <v>3.121</v>
+        <v>5.044</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>BBG00003XNY8</t>
+          <t>BBG00Z5HYQB2</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>4.691</v>
+        <v>7.486</v>
       </c>
       <c r="C678" t="n">
-        <v>1.361</v>
+        <v>4.695</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>BBG00000L139</t>
+          <t>BBG01QYDHPX5</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>5.185</v>
+        <v>4.883</v>
       </c>
       <c r="C679" t="n">
-        <v>3.007</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>BBG015PYL5L7</t>
+          <t>BBG01VKC4GK9</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>6.012</v>
+        <v>3.825</v>
       </c>
       <c r="C680" t="n">
-        <v>0.077</v>
+        <v>4.372</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>BBG01W13JJL5</t>
+          <t>BBG01L0NNVT6</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>7.884</v>
+        <v>4.159</v>
       </c>
       <c r="C681" t="n">
-        <v>3.942</v>
+        <v>3.121</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>BBG00P8T66C9</t>
+          <t>BBG00003XNY8</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>5.07</v>
+        <v>4.691</v>
       </c>
       <c r="C682" t="n">
-        <v>3.358</v>
+        <v>1.361</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>BBG01VV08ZX3</t>
+          <t>BBG00000L139</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>4.074</v>
+        <v>5.185</v>
       </c>
       <c r="C683" t="n">
-        <v>0.38</v>
+        <v>3.007</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>BBG01VXS1ZJ3</t>
+          <t>BBG015PYL5L7</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>4.075</v>
+        <v>6.012</v>
       </c>
       <c r="C684" t="n">
-        <v>0.399</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>BBG01VV08ZZ1</t>
+          <t>BBG01W13JJL5</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>3.916</v>
+        <v>7.884</v>
       </c>
       <c r="C685" t="n">
-        <v>0.87</v>
+        <v>3.942</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>BBG01VV08ZW4</t>
+          <t>BBG00P8T66C9</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>3.715</v>
+        <v>5.07</v>
       </c>
       <c r="C686" t="n">
-        <v>2.713</v>
+        <v>3.358</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>BBG019JB0986</t>
+          <t>BBG01VV08ZX3</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>5.862</v>
+        <v>4.074</v>
       </c>
       <c r="C687" t="n">
-        <v>5.344</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>BBG00PG1HZX2</t>
+          <t>BBG01VXS1ZJ3</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>5.334</v>
+        <v>4.075</v>
       </c>
       <c r="C688" t="n">
-        <v>3.424</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>BBG01FNVYP35</t>
+          <t>BBG01VV08ZZ1</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>5.469</v>
+        <v>3.916</v>
       </c>
       <c r="C689" t="n">
-        <v>4.56</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>BBG01P7QC7X3</t>
+          <t>BBG01VV08ZW4</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0.9</v>
+        <v>3.715</v>
       </c>
       <c r="C690" t="n">
-        <v>0.003</v>
+        <v>2.713</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>BBG00PT7GB32</t>
+          <t>BBG019JB0986</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>5.135</v>
+        <v>5.862</v>
       </c>
       <c r="C691" t="n">
-        <v>3.629</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>BBG01W7BW7N0</t>
+          <t>BBG00PG1HZX2</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>4.08</v>
+        <v>5.334</v>
       </c>
       <c r="C692" t="n">
-        <v>0.436</v>
+        <v>3.424</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>BBG01WJCKC02</t>
+          <t>BBG01FNVYP35</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>4.342</v>
+        <v>5.469</v>
       </c>
       <c r="C693" t="n">
-        <v>0.466</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>BBG01HQ3H0D3</t>
+          <t>BBG01P7QC7X3</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>6.039</v>
+        <v>0.9</v>
       </c>
       <c r="C694" t="n">
-        <v>10.328</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>BBG01WH843G4</t>
+          <t>BBG00PT7GB32</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>4.165</v>
+        <v>5.135</v>
       </c>
       <c r="C695" t="n">
-        <v>0.3</v>
+        <v>3.629</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>BBG00007BF34</t>
+          <t>BBG01W7BW7N0</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>5.08</v>
+        <v>4.08</v>
       </c>
       <c r="C696" t="n">
-        <v>5.896</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>BBG00000L4N1</t>
+          <t>BBG01WJCKC02</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>5.889</v>
+        <v>4.342</v>
       </c>
       <c r="C697" t="n">
-        <v>6.183</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>BBG00FGQXY82</t>
+          <t>BBG01HQ3H0D3</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>4.77</v>
+        <v>6.039</v>
       </c>
       <c r="C698" t="n">
-        <v>1.239</v>
+        <v>10.328</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>BBG00001K5F6</t>
+          <t>BBG01WH843G4</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>2.416</v>
+        <v>4.165</v>
       </c>
       <c r="C699" t="n">
-        <v>0.702</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>BBG00HC3QXH3</t>
+          <t>BBG00007BF34</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>3.745</v>
+        <v>5.08</v>
       </c>
       <c r="C700" t="n">
-        <v>1.917</v>
+        <v>5.896</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>BBG000FYM9P7</t>
+          <t>BBG00000L4N1</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>3.815</v>
+        <v>5.889</v>
       </c>
       <c r="C701" t="n">
-        <v>4.067</v>
+        <v>6.183</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>BBG007JNL349</t>
+          <t>BBG00FGQXY82</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>4.385</v>
+        <v>4.77</v>
       </c>
       <c r="C702" t="n">
-        <v>1.192</v>
+        <v>1.239</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
+          <t>BBG00001K5F6</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>2.416</v>
+      </c>
+      <c r="C703" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>BBG00HC3QXH3</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>3.745</v>
+      </c>
+      <c r="C704" t="n">
+        <v>1.917</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>BBG000FYM9P7</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>3.815</v>
+      </c>
+      <c r="C705" t="n">
+        <v>4.067</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>BBG007JNL349</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>4.385</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.192</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
           <t>BBG00JNJXWS4</t>
         </is>
       </c>
-      <c r="B703" t="n">
+      <c r="B707" t="n">
         <v>4.444</v>
       </c>
-      <c r="C703" t="n">
+      <c r="C707" t="n">
         <v>2.25</v>
       </c>
     </row>
